--- a/BankerGPT_demo.xlsx
+++ b/BankerGPT_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/dev/bankerGPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FA5871-C6B6-5440-B2F1-5F14F9F75483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66764D26-792A-8445-A55B-89ADE20E89E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42820" yWindow="500" windowWidth="22220" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35840" yWindow="500" windowWidth="22220" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Numbers From AR" sheetId="1" r:id="rId1"/>
@@ -1608,7 +1608,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1780,18 +1780,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <v>1296215</v>
-      </c>
-      <c r="E15" s="7">
-        <v>8938341</v>
-      </c>
-      <c r="F15" s="7">
-        <v>27854224</v>
-      </c>
-      <c r="G15" s="7">
-        <v>38478016</v>
-      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
     </row>
@@ -1801,18 +1793,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7">
-        <v>8303</v>
-      </c>
-      <c r="E16" s="7">
-        <v>115549</v>
-      </c>
-      <c r="F16" s="7">
-        <v>120541</v>
-      </c>
-      <c r="G16" s="7">
-        <v>48381</v>
-      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
     </row>
@@ -1822,18 +1806,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="7">
-        <v>518086</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1048004</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1617890</v>
-      </c>
-      <c r="G17" s="7">
-        <v>6804693</v>
-      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
     </row>
@@ -1843,18 +1819,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="7">
-        <v>812956</v>
-      </c>
-      <c r="E18" s="7">
-        <v>353655</v>
-      </c>
-      <c r="F18" s="7">
-        <v>480680</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1689860</v>
-      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
     </row>
@@ -1908,18 +1876,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="7">
-        <v>2795122</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2478687</v>
-      </c>
-      <c r="F22" s="7">
-        <v>4498269</v>
-      </c>
-      <c r="G22" s="7">
-        <v>11187898</v>
-      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
       <c r="N22" s="28"/>
       <c r="O22" s="28"/>
     </row>
@@ -1932,9 +1892,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7">
-        <v>5484</v>
-      </c>
+      <c r="G23" s="7"/>
       <c r="N23" s="28"/>
       <c r="O23" s="28"/>
     </row>
@@ -1944,18 +1902,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="7">
-        <v>673867</v>
-      </c>
-      <c r="E24" s="7">
-        <v>683281</v>
-      </c>
-      <c r="F24" s="7">
-        <v>751460</v>
-      </c>
-      <c r="G24" s="7">
-        <v>832620</v>
-      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
       <c r="N24" s="28"/>
       <c r="O24" s="28"/>
     </row>
@@ -1965,18 +1915,10 @@
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="6">
-        <v>4447583</v>
-      </c>
-      <c r="E25" s="6">
-        <v>4982167</v>
-      </c>
-      <c r="F25" s="6">
-        <v>9468499</v>
-      </c>
-      <c r="G25" s="6">
-        <v>19545464</v>
-      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
       <c r="N25" s="28"/>
       <c r="O25" s="28"/>
     </row>
@@ -1999,19 +1941,19 @@
       <c r="C27" s="12"/>
       <c r="D27" s="12">
         <f>D25+D19</f>
-        <v>9513422</v>
+        <v>5065839</v>
       </c>
       <c r="E27" s="12">
         <f>E25+E19</f>
-        <v>36373276</v>
+        <v>31391109</v>
       </c>
       <c r="F27" s="12">
         <f>F25+F19</f>
-        <v>61848913</v>
+        <v>52380414</v>
       </c>
       <c r="G27" s="12">
         <f>G25+G19</f>
-        <v>86537951</v>
+        <v>66992487</v>
       </c>
       <c r="N27" s="28"/>
       <c r="O27" s="28"/>
@@ -2046,18 +1988,10 @@
         <v>24</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="7">
-        <v>238957</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>37042</v>
-      </c>
-      <c r="G30" s="7">
-        <v>390750</v>
-      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="7"/>
@@ -2065,18 +1999,10 @@
         <v>25</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="7">
-        <v>624666</v>
-      </c>
-      <c r="E31" s="7">
-        <v>3160515</v>
-      </c>
-      <c r="F31" s="7">
-        <v>9376050</v>
-      </c>
-      <c r="G31" s="7">
-        <v>20024329</v>
-      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="7"/>
@@ -2084,18 +2010,10 @@
         <v>26</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="3">
-        <v>1648690</v>
-      </c>
-      <c r="E32" s="3">
-        <v>647459</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1879368</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5684644</v>
-      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
     </row>
@@ -2105,18 +2023,10 @@
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="6">
-        <v>4679720</v>
-      </c>
-      <c r="E33" s="6">
-        <v>4309221</v>
-      </c>
-      <c r="F33" s="6">
-        <v>12108252</v>
-      </c>
-      <c r="G33" s="6">
-        <v>27372601</v>
-      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
     </row>
@@ -2152,18 +2062,10 @@
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="7">
-        <v>252571</v>
-      </c>
-      <c r="E36" s="7">
-        <v>2260458</v>
-      </c>
-      <c r="F36" s="7">
-        <v>8676359</v>
-      </c>
-      <c r="G36" s="7">
-        <v>13979043</v>
-      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
@@ -2186,18 +2088,10 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="15">
-        <v>4932291</v>
-      </c>
-      <c r="E38" s="15">
-        <v>6569679</v>
-      </c>
-      <c r="F38" s="15">
-        <v>20784611</v>
-      </c>
-      <c r="G38" s="15">
-        <v>41351644</v>
-      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
       <c r="N38" s="28"/>
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
@@ -2234,18 +2128,10 @@
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="15">
-        <v>4581131</v>
-      </c>
-      <c r="E41" s="15">
-        <v>29803597</v>
-      </c>
-      <c r="F41" s="15">
-        <v>41064302</v>
-      </c>
-      <c r="G41" s="15">
-        <v>45186307</v>
-      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="6"/>
@@ -2267,15 +2153,15 @@
       </c>
       <c r="E43" s="29">
         <f>E41+E38</f>
-        <v>36373276</v>
+        <v>0</v>
       </c>
       <c r="F43" s="29">
         <f>F41+F38</f>
-        <v>61848913</v>
+        <v>0</v>
       </c>
       <c r="G43" s="29">
         <f>G41+G38</f>
-        <v>86537951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3088,71 +2974,71 @@
       </c>
       <c r="D16" s="7">
         <f>'FA &amp; Operating Model'!D31</f>
-        <v>2430279</v>
+        <v>5065839</v>
       </c>
       <c r="E16" s="7">
         <f>'FA &amp; Operating Model'!E31</f>
-        <v>20935560</v>
+        <v>31391109</v>
       </c>
       <c r="F16" s="7">
         <f>'FA &amp; Operating Model'!F31</f>
-        <v>22307079</v>
+        <v>52380414</v>
       </c>
       <c r="G16" s="7">
         <f>'FA &amp; Operating Model'!G31</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="H16" s="79">
         <f t="shared" ref="H16:T16" si="0">G16</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="I16" s="79">
         <f t="shared" si="0"/>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="J16" s="79">
         <f t="shared" si="0"/>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="K16" s="79">
         <f t="shared" si="0"/>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="L16" s="79">
         <f t="shared" si="0"/>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="M16" s="79">
         <f t="shared" si="0"/>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="N16" s="79">
         <f t="shared" si="0"/>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="O16" s="79">
         <f t="shared" si="0"/>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="P16" s="79">
         <f t="shared" si="0"/>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="Q16" s="79">
         <f t="shared" si="0"/>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="R16" s="79">
         <f t="shared" si="0"/>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="S16" s="79">
         <f t="shared" si="0"/>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="T16" s="79">
         <f t="shared" si="0"/>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -3178,59 +3064,59 @@
       </c>
       <c r="G17" s="7">
         <f>'FA &amp; Operating Model'!G36</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="H17" s="79">
         <f t="shared" ref="H17:T17" si="1">G17</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="I17" s="79">
         <f t="shared" si="1"/>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="J17" s="79">
         <f t="shared" si="1"/>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="K17" s="79">
         <f t="shared" si="1"/>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="L17" s="79">
         <f t="shared" si="1"/>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="M17" s="79">
         <f t="shared" si="1"/>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="N17" s="79">
         <f t="shared" si="1"/>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="O17" s="79">
         <f t="shared" si="1"/>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="P17" s="79">
         <f t="shared" si="1"/>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="79">
         <f t="shared" si="1"/>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="R17" s="79">
         <f t="shared" si="1"/>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="S17" s="79">
         <f t="shared" si="1"/>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="T17" s="79">
         <f t="shared" si="1"/>
-        <v>5484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -3244,71 +3130,71 @@
       </c>
       <c r="D18" s="7">
         <f>'FA &amp; Operating Model'!D38</f>
-        <v>978594</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7">
         <f>'FA &amp; Operating Model'!E38</f>
-        <v>1820199</v>
+        <v>0</v>
       </c>
       <c r="F18" s="7">
         <f>'FA &amp; Operating Model'!F38</f>
-        <v>4218770</v>
+        <v>0</v>
       </c>
       <c r="G18" s="7">
         <f>'FA &amp; Operating Model'!G38</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="H18" s="79">
         <f t="shared" ref="H18:T18" si="2">G18</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="I18" s="79">
         <f t="shared" si="2"/>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="J18" s="79">
         <f t="shared" si="2"/>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="K18" s="79">
         <f t="shared" si="2"/>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="L18" s="79">
         <f t="shared" si="2"/>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="M18" s="79">
         <f t="shared" si="2"/>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="N18" s="79">
         <f t="shared" si="2"/>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="O18" s="79">
         <f t="shared" si="2"/>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="P18" s="79">
         <f t="shared" si="2"/>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="79">
         <f t="shared" si="2"/>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="R18" s="79">
         <f t="shared" si="2"/>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="S18" s="79">
         <f t="shared" si="2"/>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="T18" s="79">
         <f t="shared" si="2"/>
-        <v>7519462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="95" customFormat="1">
@@ -3322,7 +3208,7 @@
       </c>
       <c r="D19" s="71">
         <f>'FA &amp; Operating Model'!D44</f>
-        <v>238957</v>
+        <v>0</v>
       </c>
       <c r="E19" s="71">
         <f>'FA &amp; Operating Model'!E44</f>
@@ -3330,11 +3216,11 @@
       </c>
       <c r="F19" s="71">
         <f>'FA &amp; Operating Model'!F44</f>
-        <v>37042</v>
+        <v>0</v>
       </c>
       <c r="G19" s="71">
         <f>'FA &amp; Operating Model'!G44</f>
-        <v>390750</v>
+        <v>0</v>
       </c>
       <c r="H19" s="79">
         <v>0</v>
@@ -3399,71 +3285,71 @@
       </c>
       <c r="D20" s="7">
         <f>'FA &amp; Operating Model'!D47</f>
-        <v>2167407</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7">
         <f>'FA &amp; Operating Model'!E47</f>
-        <v>501247</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
         <f>'FA &amp; Operating Model'!F47</f>
-        <v>815792</v>
+        <v>0</v>
       </c>
       <c r="G20" s="7">
         <f>'FA &amp; Operating Model'!G47</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="H20" s="79">
         <f>G20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="I20" s="79">
         <f t="shared" ref="I20:T20" si="4">H20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="J20" s="79">
         <f t="shared" si="4"/>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="K20" s="79">
         <f t="shared" si="4"/>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="L20" s="79">
         <f t="shared" si="4"/>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="M20" s="79">
         <f t="shared" si="4"/>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="N20" s="79">
         <f t="shared" si="4"/>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="O20" s="79">
         <f t="shared" si="4"/>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="P20" s="79">
         <f t="shared" si="4"/>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="79">
         <f t="shared" si="4"/>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="R20" s="79">
         <f t="shared" si="4"/>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="S20" s="79">
         <f t="shared" si="4"/>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="T20" s="79">
         <f t="shared" si="4"/>
-        <v>1272878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -3478,7 +3364,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="79">
         <f>'FA &amp; Operating Model'!H20</f>
-        <v>-854811.80633333325</v>
+        <v>-254486.28899999996</v>
       </c>
       <c r="I21" s="79" t="e">
         <f>'FA &amp; Operating Model'!I20</f>
@@ -3821,73 +3707,73 @@
         <f>'FA &amp; Operating Model'!C7/'FA &amp; Operating Model'!C29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="75" t="e">
         <f>'FA &amp; Operating Model'!D7/'FA &amp; Operating Model'!D29</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="75" t="e">
         <f>'FA &amp; Operating Model'!E7/'FA &amp; Operating Model'!E29</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="75" t="e">
         <f>'FA &amp; Operating Model'!F7/'FA &amp; Operating Model'!F29</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="75" t="e">
         <f>'FA &amp; Operating Model'!G7/'FA &amp; Operating Model'!G29</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="82" t="e">
         <f t="shared" ref="H28:T32" si="5">AVERAGE(D28:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="73" customFormat="1" ht="14" customHeight="1">
@@ -3901,73 +3787,73 @@
         <f>'FA &amp; Operating Model'!C6/'FA &amp; Operating Model'!C28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="75" t="e">
         <f>'FA &amp; Operating Model'!D6/'FA &amp; Operating Model'!D28</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="75" t="e">
         <f>'FA &amp; Operating Model'!E6/'FA &amp; Operating Model'!E28</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="75" t="e">
         <f>'FA &amp; Operating Model'!F6/'FA &amp; Operating Model'!F28</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="75" t="e">
         <f>'FA &amp; Operating Model'!G6/'FA &amp; Operating Model'!G28</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="73" customFormat="1" ht="14" customHeight="1">
@@ -3981,73 +3867,73 @@
         <f>'FA &amp; Operating Model'!C30/'FA &amp; Operating Model'!C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D30" s="75" t="e">
         <f>'FA &amp; Operating Model'!D7/'FA &amp; Operating Model'!D30</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="75" t="e">
         <f>'FA &amp; Operating Model'!E7/'FA &amp; Operating Model'!E30</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="75" t="e">
         <f>'FA &amp; Operating Model'!F7/'FA &amp; Operating Model'!F30</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="75" t="e">
         <f>'FA &amp; Operating Model'!G7/'FA &amp; Operating Model'!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="73" customFormat="1" ht="14" customHeight="1">
@@ -4061,73 +3947,73 @@
         <f>'FA &amp; Operating Model'!C7/'FA &amp; Operating Model'!C45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="75">
+      <c r="D31" s="75" t="e">
         <f>'FA &amp; Operating Model'!D7/'FA &amp; Operating Model'!D45</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="75" t="e">
         <f>'FA &amp; Operating Model'!E7/'FA &amp; Operating Model'!E45</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="75" t="e">
         <f>'FA &amp; Operating Model'!F7/'FA &amp; Operating Model'!F45</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="75" t="e">
         <f>'FA &amp; Operating Model'!G7/'FA &amp; Operating Model'!G45</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="82" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -4391,7 +4277,7 @@
       </c>
       <c r="D50" s="37">
         <f>'FA &amp; Operating Model'!D44</f>
-        <v>238957</v>
+        <v>0</v>
       </c>
       <c r="E50" s="37">
         <f>'FA &amp; Operating Model'!E44</f>
@@ -4399,11 +4285,11 @@
       </c>
       <c r="F50" s="37">
         <f>'FA &amp; Operating Model'!F44</f>
-        <v>37042</v>
+        <v>0</v>
       </c>
       <c r="G50" s="37">
         <f>'FA &amp; Operating Model'!G44</f>
-        <v>390750</v>
+        <v>0</v>
       </c>
       <c r="H50" s="37">
         <f t="shared" ref="H50:T50" si="6">H19</f>
@@ -4469,71 +4355,71 @@
       </c>
       <c r="D51" s="37">
         <f>'FA &amp; Operating Model'!D51</f>
-        <v>252571</v>
+        <v>0</v>
       </c>
       <c r="E51" s="37">
         <f>'FA &amp; Operating Model'!E51</f>
-        <v>2260458</v>
+        <v>0</v>
       </c>
       <c r="F51" s="37">
         <f>'FA &amp; Operating Model'!F51</f>
-        <v>8676359</v>
+        <v>0</v>
       </c>
       <c r="G51" s="37">
         <f>'FA &amp; Operating Model'!G51</f>
-        <v>13979043</v>
+        <v>0</v>
       </c>
       <c r="H51" s="37">
         <f t="shared" ref="H51:T51" si="7">H61</f>
-        <v>15763417.425000001</v>
+        <v>1002874.4249999998</v>
       </c>
       <c r="I51" s="37">
         <f t="shared" si="7"/>
-        <v>17067154.177500002</v>
+        <v>2306611.1775000002</v>
       </c>
       <c r="J51" s="37">
         <f t="shared" si="7"/>
-        <v>18762011.955750003</v>
+        <v>4001468.9557500007</v>
       </c>
       <c r="K51" s="37">
         <f t="shared" si="7"/>
-        <v>20965327.067475002</v>
+        <v>6204784.0674750004</v>
       </c>
       <c r="L51" s="37">
         <f t="shared" si="7"/>
-        <v>23829636.712717503</v>
+        <v>9069093.7127175014</v>
       </c>
       <c r="M51" s="37">
         <f t="shared" si="7"/>
-        <v>27553239.251532756</v>
+        <v>12792696.251532752</v>
       </c>
       <c r="N51" s="37">
         <f t="shared" si="7"/>
-        <v>32393922.55199258</v>
+        <v>17633379.551992577</v>
       </c>
       <c r="O51" s="37">
         <f t="shared" si="7"/>
-        <v>38686810.842590354</v>
+        <v>23926267.842590351</v>
       </c>
       <c r="P51" s="37">
         <f t="shared" si="7"/>
-        <v>46867565.620367467</v>
+        <v>32107022.62036746</v>
       </c>
       <c r="Q51" s="37">
         <f t="shared" si="7"/>
-        <v>57502546.831477709</v>
+        <v>42742003.831477702</v>
       </c>
       <c r="R51" s="37">
         <f t="shared" si="7"/>
-        <v>71328022.405921012</v>
+        <v>56567479.405921012</v>
       </c>
       <c r="S51" s="37">
         <f t="shared" si="7"/>
-        <v>89301140.652697325</v>
+        <v>74540597.652697325</v>
       </c>
       <c r="T51" s="37">
         <f t="shared" si="7"/>
-        <v>112666194.37350653</v>
+        <v>97905651.373506531</v>
       </c>
     </row>
     <row r="52" spans="1:20" hidden="1" outlineLevel="1">
@@ -4547,71 +4433,71 @@
       </c>
       <c r="D52" s="37">
         <f t="shared" si="8"/>
-        <v>491528</v>
+        <v>0</v>
       </c>
       <c r="E52" s="37">
         <f t="shared" si="8"/>
-        <v>2260458</v>
+        <v>0</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="8"/>
-        <v>8713401</v>
+        <v>0</v>
       </c>
       <c r="G52" s="37">
         <f t="shared" si="8"/>
-        <v>14369793</v>
+        <v>0</v>
       </c>
       <c r="H52" s="37">
         <f t="shared" si="8"/>
-        <v>15763417.425000001</v>
+        <v>1002874.4249999998</v>
       </c>
       <c r="I52" s="37">
         <f t="shared" si="8"/>
-        <v>17067154.177500002</v>
+        <v>2306611.1775000002</v>
       </c>
       <c r="J52" s="37">
         <f t="shared" si="8"/>
-        <v>18762011.955750003</v>
+        <v>4001468.9557500007</v>
       </c>
       <c r="K52" s="37">
         <f t="shared" si="8"/>
-        <v>20965327.067475002</v>
+        <v>6204784.0674750004</v>
       </c>
       <c r="L52" s="37">
         <f t="shared" si="8"/>
-        <v>23829636.712717503</v>
+        <v>9069093.7127175014</v>
       </c>
       <c r="M52" s="37">
         <f t="shared" si="8"/>
-        <v>27553239.251532756</v>
+        <v>12792696.251532752</v>
       </c>
       <c r="N52" s="37">
         <f t="shared" si="8"/>
-        <v>32393922.55199258</v>
+        <v>17633379.551992577</v>
       </c>
       <c r="O52" s="37">
         <f t="shared" si="8"/>
-        <v>38686810.842590354</v>
+        <v>23926267.842590351</v>
       </c>
       <c r="P52" s="37">
         <f t="shared" si="8"/>
-        <v>46867565.620367467</v>
+        <v>32107022.62036746</v>
       </c>
       <c r="Q52" s="37">
         <f t="shared" si="8"/>
-        <v>57502546.831477709</v>
+        <v>42742003.831477702</v>
       </c>
       <c r="R52" s="37">
         <f t="shared" si="8"/>
-        <v>71328022.405921012</v>
+        <v>56567479.405921012</v>
       </c>
       <c r="S52" s="37">
         <f t="shared" si="8"/>
-        <v>89301140.652697325</v>
+        <v>74540597.652697325</v>
       </c>
       <c r="T52" s="37">
         <f t="shared" si="8"/>
-        <v>112666194.37350653</v>
+        <v>97905651.373506531</v>
       </c>
     </row>
     <row r="53" spans="1:20" hidden="1" outlineLevel="1">
@@ -4794,55 +4680,55 @@
       <c r="E58" s="37"/>
       <c r="H58" s="38">
         <f>G52</f>
-        <v>14369793</v>
+        <v>0</v>
       </c>
       <c r="I58" s="38">
         <f t="shared" ref="I58:T58" si="11">H61</f>
-        <v>15763417.425000001</v>
+        <v>1002874.4249999998</v>
       </c>
       <c r="J58" s="38">
         <f t="shared" si="11"/>
-        <v>17067154.177500002</v>
+        <v>2306611.1775000002</v>
       </c>
       <c r="K58" s="38">
         <f t="shared" si="11"/>
-        <v>18762011.955750003</v>
+        <v>4001468.9557500007</v>
       </c>
       <c r="L58" s="38">
         <f t="shared" si="11"/>
-        <v>20965327.067475002</v>
+        <v>6204784.0674750004</v>
       </c>
       <c r="M58" s="38">
         <f t="shared" si="11"/>
-        <v>23829636.712717503</v>
+        <v>9069093.7127175014</v>
       </c>
       <c r="N58" s="38">
         <f t="shared" si="11"/>
-        <v>27553239.251532756</v>
+        <v>12792696.251532752</v>
       </c>
       <c r="O58" s="38">
         <f t="shared" si="11"/>
-        <v>32393922.55199258</v>
+        <v>17633379.551992577</v>
       </c>
       <c r="P58" s="38">
         <f t="shared" si="11"/>
-        <v>38686810.842590354</v>
+        <v>23926267.842590351</v>
       </c>
       <c r="Q58" s="38">
         <f t="shared" si="11"/>
-        <v>46867565.620367467</v>
+        <v>32107022.62036746</v>
       </c>
       <c r="R58" s="38">
         <f t="shared" si="11"/>
-        <v>57502546.831477709</v>
+        <v>42742003.831477702</v>
       </c>
       <c r="S58" s="38">
         <f t="shared" si="11"/>
-        <v>71328022.405921012</v>
+        <v>56567479.405921012</v>
       </c>
       <c r="T58" s="38">
         <f t="shared" si="11"/>
-        <v>89301140.652697325</v>
+        <v>74540597.652697325</v>
       </c>
     </row>
     <row r="59" spans="1:20" hidden="1" outlineLevel="1">
@@ -4855,7 +4741,7 @@
       <c r="E59" s="41"/>
       <c r="H59" s="38">
         <f>G50</f>
-        <v>390750</v>
+        <v>0</v>
       </c>
       <c r="I59" s="38">
         <v>0</v>
@@ -4967,55 +4853,55 @@
       <c r="E61" s="43"/>
       <c r="H61" s="43">
         <f t="shared" ref="H61:T61" si="13">H60+H58+H59</f>
-        <v>15763417.425000001</v>
+        <v>1002874.4249999998</v>
       </c>
       <c r="I61" s="43">
         <f t="shared" si="13"/>
-        <v>17067154.177500002</v>
+        <v>2306611.1775000002</v>
       </c>
       <c r="J61" s="43">
         <f t="shared" si="13"/>
-        <v>18762011.955750003</v>
+        <v>4001468.9557500007</v>
       </c>
       <c r="K61" s="43">
         <f t="shared" si="13"/>
-        <v>20965327.067475002</v>
+        <v>6204784.0674750004</v>
       </c>
       <c r="L61" s="43">
         <f t="shared" si="13"/>
-        <v>23829636.712717503</v>
+        <v>9069093.7127175014</v>
       </c>
       <c r="M61" s="43">
         <f t="shared" si="13"/>
-        <v>27553239.251532756</v>
+        <v>12792696.251532752</v>
       </c>
       <c r="N61" s="43">
         <f t="shared" si="13"/>
-        <v>32393922.55199258</v>
+        <v>17633379.551992577</v>
       </c>
       <c r="O61" s="43">
         <f t="shared" si="13"/>
-        <v>38686810.842590354</v>
+        <v>23926267.842590351</v>
       </c>
       <c r="P61" s="43">
         <f t="shared" si="13"/>
-        <v>46867565.620367467</v>
+        <v>32107022.62036746</v>
       </c>
       <c r="Q61" s="43">
         <f t="shared" si="13"/>
-        <v>57502546.831477709</v>
+        <v>42742003.831477702</v>
       </c>
       <c r="R61" s="43">
         <f t="shared" si="13"/>
-        <v>71328022.405921012</v>
+        <v>56567479.405921012</v>
       </c>
       <c r="S61" s="43">
         <f t="shared" si="13"/>
-        <v>89301140.652697325</v>
+        <v>74540597.652697325</v>
       </c>
       <c r="T61" s="43">
         <f t="shared" si="13"/>
-        <v>112666194.37350653</v>
+        <v>97905651.373506531</v>
       </c>
     </row>
     <row r="62" spans="1:20" hidden="1" outlineLevel="1">
@@ -5052,55 +4938,55 @@
       <c r="E64" s="37"/>
       <c r="H64" s="37">
         <f t="shared" ref="H64:T64" si="14">H61*H10</f>
-        <v>788170.87125000008</v>
+        <v>50143.721249999995</v>
       </c>
       <c r="I64" s="37">
         <f t="shared" si="14"/>
-        <v>853357.70887500013</v>
+        <v>115330.55887500002</v>
       </c>
       <c r="J64" s="37">
         <f t="shared" si="14"/>
-        <v>938100.59778750024</v>
+        <v>200073.44778750004</v>
       </c>
       <c r="K64" s="37">
         <f t="shared" si="14"/>
-        <v>1048266.3533737501</v>
+        <v>310239.20337375003</v>
       </c>
       <c r="L64" s="37">
         <f t="shared" si="14"/>
-        <v>1191481.8356358751</v>
+        <v>453454.6856358751</v>
       </c>
       <c r="M64" s="37">
         <f t="shared" si="14"/>
-        <v>1377661.962576638</v>
+        <v>639634.8125766376</v>
       </c>
       <c r="N64" s="37">
         <f t="shared" si="14"/>
-        <v>1619696.1275996291</v>
+        <v>881668.97759962885</v>
       </c>
       <c r="O64" s="37">
         <f t="shared" si="14"/>
-        <v>1934340.5421295178</v>
+        <v>1196313.3921295176</v>
       </c>
       <c r="P64" s="37">
         <f t="shared" si="14"/>
-        <v>2343378.2810183736</v>
+        <v>1605351.1310183732</v>
       </c>
       <c r="Q64" s="37">
         <f t="shared" si="14"/>
-        <v>2875127.3415738856</v>
+        <v>2137100.1915738853</v>
       </c>
       <c r="R64" s="37">
         <f t="shared" si="14"/>
-        <v>3566401.1202960508</v>
+        <v>2828373.9702960509</v>
       </c>
       <c r="S64" s="37">
         <f t="shared" si="14"/>
-        <v>4465057.0326348664</v>
+        <v>3727029.8826348665</v>
       </c>
       <c r="T64" s="37">
         <f t="shared" si="14"/>
-        <v>5633309.7186753266</v>
+        <v>4895282.5686753271</v>
       </c>
     </row>
     <row r="65" spans="1:20" hidden="1" outlineLevel="1">
@@ -5139,7 +5025,7 @@
       <c r="E67" s="37"/>
       <c r="H67" s="37">
         <f>'FA &amp; Operating Model'!G27</f>
-        <v>38478016</v>
+        <v>0</v>
       </c>
       <c r="I67" s="37" t="e">
         <f>'FA &amp; Operating Model'!H27</f>
@@ -5200,7 +5086,7 @@
       <c r="E68" s="37"/>
       <c r="H68" s="37">
         <f t="shared" ref="H68:T68" si="15">H67*H11</f>
-        <v>769560.32000000007</v>
+        <v>0</v>
       </c>
       <c r="I68" s="37" t="e">
         <f t="shared" si="15"/>
@@ -5371,59 +5257,59 @@
       <c r="F72" s="48"/>
       <c r="G72" s="51">
         <f>G71-G73</f>
-        <v>2183761</v>
+        <v>13371659</v>
       </c>
       <c r="H72" s="48">
         <f t="shared" ref="H72:T72" si="17">G72-H95</f>
-        <v>3197054.0466666669</v>
+        <v>13639092.18</v>
       </c>
       <c r="I72" s="48">
         <f t="shared" si="17"/>
-        <v>4558010.2273333333</v>
+        <v>14254188.493999999</v>
       </c>
       <c r="J72" s="48">
         <f t="shared" si="17"/>
-        <v>6370928.4822000004</v>
+        <v>15321246.882199999</v>
       </c>
       <c r="K72" s="48">
         <f t="shared" si="17"/>
-        <v>8771397.4335266668</v>
+        <v>16975855.96686</v>
       </c>
       <c r="L72" s="48">
         <f t="shared" si="17"/>
-        <v>11935682.290251333</v>
+        <v>19394280.956918001</v>
       </c>
       <c r="M72" s="48">
         <f t="shared" si="17"/>
-        <v>16092927.8239934</v>
+        <v>22805666.6239934</v>
       </c>
       <c r="N72" s="48">
         <f t="shared" si="17"/>
-        <v>21541022.237858087</v>
+        <v>27507901.17119142</v>
       </c>
       <c r="O72" s="48">
         <f t="shared" si="17"/>
-        <v>28667220.195882179</v>
+        <v>33888239.262548849</v>
       </c>
       <c r="P72" s="48">
         <f t="shared" si="17"/>
-        <v>37974952.761313498</v>
+        <v>42450111.961313501</v>
       </c>
       <c r="Q72" s="48">
         <f t="shared" si="17"/>
-        <v>50118680.31637422</v>
+        <v>53847979.649707556</v>
       </c>
       <c r="R72" s="48">
         <f t="shared" si="17"/>
-        <v>65949201.357953161</v>
+        <v>68932640.82461983</v>
       </c>
       <c r="S72" s="48">
         <f t="shared" si="17"/>
-        <v>86572553.932005778</v>
+        <v>88810133.532005787</v>
       </c>
       <c r="T72" s="48">
         <f t="shared" si="17"/>
-        <v>113426587.49827418</v>
+        <v>114918307.23160753</v>
       </c>
     </row>
     <row r="73" spans="1:20" hidden="1" outlineLevel="1">
@@ -5437,71 +5323,71 @@
       </c>
       <c r="D73" s="52">
         <f>'FA &amp; Operating Model'!D35</f>
-        <v>2795122</v>
+        <v>0</v>
       </c>
       <c r="E73" s="52">
         <f>'FA &amp; Operating Model'!E35</f>
-        <v>2478687</v>
+        <v>0</v>
       </c>
       <c r="F73" s="52">
         <f>'FA &amp; Operating Model'!F35</f>
-        <v>4498269</v>
+        <v>0</v>
       </c>
       <c r="G73" s="52">
         <f>'FA &amp; Operating Model'!G35</f>
-        <v>11187898</v>
+        <v>0</v>
       </c>
       <c r="H73" s="52">
         <f t="shared" ref="H73:T73" si="18">H71-H72</f>
-        <v>14186102.653333332</v>
+        <v>3744064.5199999996</v>
       </c>
       <c r="I73" s="52">
         <f t="shared" si="18"/>
-        <v>18040093.482666668</v>
+        <v>8343915.2160000019</v>
       </c>
       <c r="J73" s="52">
         <f t="shared" si="18"/>
-        <v>23006606.340800002</v>
+        <v>14056287.940800004</v>
       </c>
       <c r="K73" s="52">
         <f t="shared" si="18"/>
-        <v>29419397.836373337</v>
+        <v>21214939.303040002</v>
       </c>
       <c r="L73" s="52">
         <f t="shared" si="18"/>
-        <v>37712351.560618669</v>
+        <v>30253752.893952005</v>
       </c>
       <c r="M73" s="52">
         <f t="shared" si="18"/>
-        <v>48449516.182137609</v>
+        <v>41736777.382137612</v>
       </c>
       <c r="N73" s="52">
         <f t="shared" si="18"/>
-        <v>62364154.970112219</v>
+        <v>56397276.036778882</v>
       </c>
       <c r="O73" s="52">
         <f t="shared" si="18"/>
-        <v>80409510.174479216</v>
+        <v>75188491.107812554</v>
       </c>
       <c r="P73" s="52">
         <f t="shared" si="18"/>
-        <v>103824796.72015634</v>
+        <v>99349637.520156339</v>
       </c>
       <c r="Q73" s="52">
         <f t="shared" si="18"/>
-        <v>134220994.00953659</v>
+        <v>130491694.67620325</v>
       </c>
       <c r="R73" s="52">
         <f t="shared" si="18"/>
-        <v>173692375.26573089</v>
+        <v>170708935.79906422</v>
       </c>
       <c r="S73" s="52">
         <f t="shared" si="18"/>
-        <v>224961495.67878354</v>
+        <v>222723916.07878351</v>
       </c>
       <c r="T73" s="52">
         <f t="shared" si="18"/>
-        <v>291567676.99575198</v>
+        <v>290075957.26241863</v>
       </c>
     </row>
     <row r="74" spans="1:20" hidden="1" outlineLevel="1">
@@ -5526,7 +5412,7 @@
       <c r="E75" s="35"/>
       <c r="H75" s="54">
         <f>G73</f>
-        <v>11187898</v>
+        <v>0</v>
       </c>
       <c r="I75" s="54"/>
       <c r="J75" s="54"/>
@@ -5559,55 +5445,55 @@
       <c r="E77" s="3"/>
       <c r="H77" s="56">
         <f>-H75/D76</f>
-        <v>-745859.8666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" s="56">
         <f t="shared" ref="I77:T77" si="19">H77</f>
-        <v>-745859.8666666667</v>
+        <v>0</v>
       </c>
       <c r="J77" s="56">
         <f t="shared" si="19"/>
-        <v>-745859.8666666667</v>
+        <v>0</v>
       </c>
       <c r="K77" s="56">
         <f t="shared" si="19"/>
-        <v>-745859.8666666667</v>
+        <v>0</v>
       </c>
       <c r="L77" s="56">
         <f t="shared" si="19"/>
-        <v>-745859.8666666667</v>
+        <v>0</v>
       </c>
       <c r="M77" s="56">
         <f t="shared" si="19"/>
-        <v>-745859.8666666667</v>
+        <v>0</v>
       </c>
       <c r="N77" s="56">
         <f t="shared" si="19"/>
-        <v>-745859.8666666667</v>
+        <v>0</v>
       </c>
       <c r="O77" s="56">
         <f t="shared" si="19"/>
-        <v>-745859.8666666667</v>
+        <v>0</v>
       </c>
       <c r="P77" s="56">
         <f t="shared" si="19"/>
-        <v>-745859.8666666667</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="56">
         <f t="shared" si="19"/>
-        <v>-745859.8666666667</v>
+        <v>0</v>
       </c>
       <c r="R77" s="56">
         <f t="shared" si="19"/>
-        <v>-745859.8666666667</v>
+        <v>0</v>
       </c>
       <c r="S77" s="56">
         <f t="shared" si="19"/>
-        <v>-745859.8666666667</v>
+        <v>0</v>
       </c>
       <c r="T77" s="56">
         <f t="shared" si="19"/>
-        <v>-745859.8666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:20" hidden="1" outlineLevel="1">
@@ -6255,55 +6141,55 @@
       <c r="G95" s="60"/>
       <c r="H95" s="60">
         <f t="shared" ref="H95:T95" si="28">SUM(H80:H92)+H77</f>
-        <v>-1013293.0466666666</v>
+        <v>-267433.17999999993</v>
       </c>
       <c r="I95" s="60">
         <f t="shared" si="28"/>
-        <v>-1360956.1806666667</v>
+        <v>-615096.31400000001</v>
       </c>
       <c r="J95" s="60">
         <f t="shared" si="28"/>
-        <v>-1812918.2548666669</v>
+        <v>-1067058.3882000002</v>
       </c>
       <c r="K95" s="60">
         <f t="shared" si="28"/>
-        <v>-2400468.9513266669</v>
+        <v>-1654609.0846600002</v>
       </c>
       <c r="L95" s="60">
         <f t="shared" si="28"/>
-        <v>-3164284.8567246669</v>
+        <v>-2418424.9900580002</v>
       </c>
       <c r="M95" s="60">
         <f t="shared" si="28"/>
-        <v>-4157245.5337420669</v>
+        <v>-3411385.6670754002</v>
       </c>
       <c r="N95" s="60">
         <f t="shared" si="28"/>
-        <v>-5448094.4138646871</v>
+        <v>-4702234.5471980199</v>
       </c>
       <c r="O95" s="60">
         <f t="shared" si="28"/>
-        <v>-7126197.9580240939</v>
+        <v>-6380338.0913574267</v>
       </c>
       <c r="P95" s="60">
         <f t="shared" si="28"/>
-        <v>-9307732.5654313229</v>
+        <v>-8561872.6987646557</v>
       </c>
       <c r="Q95" s="60">
         <f t="shared" si="28"/>
-        <v>-12143727.55506072</v>
+        <v>-11397867.688394053</v>
       </c>
       <c r="R95" s="60">
         <f t="shared" si="28"/>
-        <v>-15830521.041578937</v>
+        <v>-15084661.17491227</v>
       </c>
       <c r="S95" s="60">
         <f t="shared" si="28"/>
-        <v>-20623352.574052621</v>
+        <v>-19877492.707385954</v>
       </c>
       <c r="T95" s="60">
         <f t="shared" si="28"/>
-        <v>-26854033.566268407</v>
+        <v>-26108173.69960174</v>
       </c>
     </row>
     <row r="96" spans="1:20" hidden="1" outlineLevel="1">
@@ -6353,59 +6239,59 @@
       <c r="F98" s="65"/>
       <c r="G98" s="49">
         <f>G100+G99</f>
-        <v>885716</v>
+        <v>53096</v>
       </c>
       <c r="H98" s="65">
         <f t="shared" ref="H98:T98" si="29">G98*(1+H23)</f>
-        <v>1151430.8</v>
+        <v>69024.800000000003</v>
       </c>
       <c r="I98" s="65">
         <f t="shared" si="29"/>
-        <v>1496860.04</v>
+        <v>89732.24</v>
       </c>
       <c r="J98" s="65">
         <f t="shared" si="29"/>
-        <v>1945918.0520000001</v>
+        <v>116651.91200000001</v>
       </c>
       <c r="K98" s="65">
         <f t="shared" si="29"/>
-        <v>2529693.4676000001</v>
+        <v>151647.48560000001</v>
       </c>
       <c r="L98" s="65">
         <f t="shared" si="29"/>
-        <v>3288601.5078800004</v>
+        <v>197141.73128000004</v>
       </c>
       <c r="M98" s="65">
         <f t="shared" si="29"/>
-        <v>4275181.9602440009</v>
+        <v>256284.25066400005</v>
       </c>
       <c r="N98" s="65">
         <f t="shared" si="29"/>
-        <v>5557736.5483172014</v>
+        <v>333169.52586320008</v>
       </c>
       <c r="O98" s="65">
         <f t="shared" si="29"/>
-        <v>7225057.5128123621</v>
+        <v>433120.38362216012</v>
       </c>
       <c r="P98" s="65">
         <f t="shared" si="29"/>
-        <v>9392574.7666560709</v>
+        <v>563056.49870880821</v>
       </c>
       <c r="Q98" s="65">
         <f t="shared" si="29"/>
-        <v>12210347.196652893</v>
+        <v>731973.44832145073</v>
       </c>
       <c r="R98" s="65">
         <f t="shared" si="29"/>
-        <v>15873451.355648762</v>
+        <v>951565.48281788593</v>
       </c>
       <c r="S98" s="65">
         <f t="shared" si="29"/>
-        <v>20635486.762343392</v>
+        <v>1237035.1276632517</v>
       </c>
       <c r="T98" s="65">
         <f t="shared" si="29"/>
-        <v>26826132.791046411</v>
+        <v>1608145.6659622274</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="14.5" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
@@ -6422,55 +6308,55 @@
       </c>
       <c r="H99" s="68">
         <f t="shared" ref="H99:T99" si="30">G99-H122</f>
-        <v>89707.16</v>
+        <v>53626.96</v>
       </c>
       <c r="I99" s="68">
         <f t="shared" si="30"/>
-        <v>137832.628</v>
+        <v>54848.167999999998</v>
       </c>
       <c r="J99" s="68">
         <f t="shared" si="30"/>
-        <v>200926.69640000002</v>
+        <v>56966.698400000001</v>
       </c>
       <c r="K99" s="68">
         <f t="shared" si="30"/>
-        <v>283479.94532</v>
+        <v>60251.747920000002</v>
       </c>
       <c r="L99" s="68">
         <f t="shared" si="30"/>
-        <v>391330.12891600002</v>
+        <v>65053.272296000003</v>
       </c>
       <c r="M99" s="68">
         <f t="shared" si="30"/>
-        <v>532066.32759080012</v>
+        <v>71826.213984800008</v>
       </c>
       <c r="N99" s="68">
         <f t="shared" si="30"/>
-        <v>715554.34586804011</v>
+        <v>81161.998180240014</v>
       </c>
       <c r="O99" s="68">
         <f t="shared" si="30"/>
-        <v>954619.7296284521</v>
+        <v>93829.477634312017</v>
       </c>
       <c r="P99" s="68">
         <f t="shared" si="30"/>
-        <v>1265935.6885169877</v>
+        <v>110828.16092460562</v>
       </c>
       <c r="Q99" s="68">
         <f t="shared" si="30"/>
-        <v>1671177.3950720842</v>
+        <v>133457.40920198732</v>
       </c>
       <c r="R99" s="68">
         <f t="shared" si="30"/>
-        <v>2198522.5735937096</v>
+        <v>163406.39196258353</v>
       </c>
       <c r="S99" s="68">
         <f t="shared" si="30"/>
-        <v>2884602.2656718227</v>
+        <v>202871.0295513586</v>
       </c>
       <c r="T99" s="68">
         <f t="shared" si="30"/>
-        <v>3777036.8253733697</v>
+        <v>254706.01841676619</v>
       </c>
     </row>
     <row r="100" spans="1:20" hidden="1" outlineLevel="1">
@@ -6484,71 +6370,71 @@
       </c>
       <c r="D100" s="6">
         <f>'FA &amp; Operating Model'!D37</f>
-        <v>673867</v>
+        <v>0</v>
       </c>
       <c r="E100" s="6">
         <f>'FA &amp; Operating Model'!E37</f>
-        <v>683281</v>
+        <v>0</v>
       </c>
       <c r="F100" s="6">
         <f>'FA &amp; Operating Model'!F37</f>
-        <v>751460</v>
+        <v>0</v>
       </c>
       <c r="G100" s="6">
         <f>'FA &amp; Operating Model'!G37</f>
-        <v>832620</v>
+        <v>0</v>
       </c>
       <c r="H100" s="6">
         <f t="shared" ref="H100:T100" si="31">H98-H99</f>
-        <v>1061723.6400000001</v>
+        <v>15397.840000000004</v>
       </c>
       <c r="I100" s="6">
         <f t="shared" si="31"/>
-        <v>1359027.412</v>
+        <v>34884.072000000007</v>
       </c>
       <c r="J100" s="6">
         <f t="shared" si="31"/>
-        <v>1744991.3556000001</v>
+        <v>59685.21360000001</v>
       </c>
       <c r="K100" s="6">
         <f t="shared" si="31"/>
-        <v>2246213.5222800002</v>
+        <v>91395.73768000002</v>
       </c>
       <c r="L100" s="6">
         <f t="shared" si="31"/>
-        <v>2897271.3789640004</v>
+        <v>132088.45898400003</v>
       </c>
       <c r="M100" s="6">
         <f t="shared" si="31"/>
-        <v>3743115.632653201</v>
+        <v>184458.03667920004</v>
       </c>
       <c r="N100" s="6">
         <f t="shared" si="31"/>
-        <v>4842182.2024491616</v>
+        <v>252007.52768296006</v>
       </c>
       <c r="O100" s="6">
         <f t="shared" si="31"/>
-        <v>6270437.78318391</v>
+        <v>339290.90598784812</v>
       </c>
       <c r="P100" s="6">
         <f t="shared" si="31"/>
-        <v>8126639.0781390835</v>
+        <v>452228.33778420259</v>
       </c>
       <c r="Q100" s="6">
         <f t="shared" si="31"/>
-        <v>10539169.801580809</v>
+        <v>598516.03911946341</v>
       </c>
       <c r="R100" s="6">
         <f t="shared" si="31"/>
-        <v>13674928.782055052</v>
+        <v>788159.09085530241</v>
       </c>
       <c r="S100" s="6">
         <f t="shared" si="31"/>
-        <v>17750884.496671569</v>
+        <v>1034164.0981118931</v>
       </c>
       <c r="T100" s="6">
         <f t="shared" si="31"/>
-        <v>23049095.965673041</v>
+        <v>1353439.6475454611</v>
       </c>
     </row>
     <row r="101" spans="1:20" hidden="1" outlineLevel="1">
@@ -6573,7 +6459,7 @@
       <c r="E102" s="6"/>
       <c r="H102" s="54">
         <f>G100</f>
-        <v>832620</v>
+        <v>0</v>
       </c>
       <c r="I102" s="54"/>
       <c r="J102" s="54"/>
@@ -6606,55 +6492,55 @@
       <c r="E104" s="6"/>
       <c r="H104" s="56">
         <f>-H102/D103</f>
-        <v>-27754</v>
+        <v>0</v>
       </c>
       <c r="I104" s="56">
         <f t="shared" ref="I104:T104" si="32">H104</f>
-        <v>-27754</v>
+        <v>0</v>
       </c>
       <c r="J104" s="56">
         <f t="shared" si="32"/>
-        <v>-27754</v>
+        <v>0</v>
       </c>
       <c r="K104" s="56">
         <f t="shared" si="32"/>
-        <v>-27754</v>
+        <v>0</v>
       </c>
       <c r="L104" s="56">
         <f t="shared" si="32"/>
-        <v>-27754</v>
+        <v>0</v>
       </c>
       <c r="M104" s="56">
         <f t="shared" si="32"/>
-        <v>-27754</v>
+        <v>0</v>
       </c>
       <c r="N104" s="56">
         <f t="shared" si="32"/>
-        <v>-27754</v>
+        <v>0</v>
       </c>
       <c r="O104" s="56">
         <f t="shared" si="32"/>
-        <v>-27754</v>
+        <v>0</v>
       </c>
       <c r="P104" s="56">
         <f t="shared" si="32"/>
-        <v>-27754</v>
+        <v>0</v>
       </c>
       <c r="Q104" s="56">
         <f t="shared" si="32"/>
-        <v>-27754</v>
+        <v>0</v>
       </c>
       <c r="R104" s="56">
         <f t="shared" si="32"/>
-        <v>-27754</v>
+        <v>0</v>
       </c>
       <c r="S104" s="56">
         <f t="shared" si="32"/>
-        <v>-27754</v>
+        <v>0</v>
       </c>
       <c r="T104" s="56">
         <f t="shared" si="32"/>
-        <v>-27754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:20" hidden="1" outlineLevel="1">
@@ -6679,55 +6565,55 @@
       <c r="E106" s="6"/>
       <c r="H106" s="54">
         <f t="shared" ref="H106:T106" si="33">H98-G98</f>
-        <v>265714.80000000005</v>
+        <v>15928.800000000003</v>
       </c>
       <c r="I106" s="54">
         <f t="shared" si="33"/>
-        <v>345429.24</v>
+        <v>20707.440000000002</v>
       </c>
       <c r="J106" s="54">
         <f t="shared" si="33"/>
-        <v>449058.0120000001</v>
+        <v>26919.672000000006</v>
       </c>
       <c r="K106" s="54">
         <f t="shared" si="33"/>
-        <v>583775.41559999995</v>
+        <v>34995.573600000003</v>
       </c>
       <c r="L106" s="54">
         <f t="shared" si="33"/>
-        <v>758908.04028000031</v>
+        <v>45494.245680000022</v>
       </c>
       <c r="M106" s="54">
         <f t="shared" si="33"/>
-        <v>986580.45236400049</v>
+        <v>59142.519384000014</v>
       </c>
       <c r="N106" s="54">
         <f t="shared" si="33"/>
-        <v>1282554.5880732005</v>
+        <v>76885.275199200027</v>
       </c>
       <c r="O106" s="54">
         <f t="shared" si="33"/>
-        <v>1667320.9644951606</v>
+        <v>99950.857758960046</v>
       </c>
       <c r="P106" s="54">
         <f t="shared" si="33"/>
-        <v>2167517.2538437089</v>
+        <v>129936.11508664809</v>
       </c>
       <c r="Q106" s="54">
         <f t="shared" si="33"/>
-        <v>2817772.429996822</v>
+        <v>168916.94961264252</v>
       </c>
       <c r="R106" s="54">
         <f t="shared" si="33"/>
-        <v>3663104.1589958686</v>
+        <v>219592.0344964352</v>
       </c>
       <c r="S106" s="54">
         <f t="shared" si="33"/>
-        <v>4762035.4066946302</v>
+        <v>285469.64484536578</v>
       </c>
       <c r="T106" s="54">
         <f t="shared" si="33"/>
-        <v>6190646.028703019</v>
+        <v>371110.53829897568</v>
       </c>
     </row>
     <row r="107" spans="1:20" hidden="1" outlineLevel="1">
@@ -6740,55 +6626,55 @@
       <c r="E107" s="6"/>
       <c r="H107" s="48">
         <f>-SLN(H$106,0,H$25)</f>
-        <v>-8857.1600000000017</v>
+        <v>-530.96000000000015</v>
       </c>
       <c r="I107" s="3">
         <f t="shared" ref="I107:T107" si="34">H107</f>
-        <v>-8857.1600000000017</v>
+        <v>-530.96000000000015</v>
       </c>
       <c r="J107" s="3">
         <f t="shared" si="34"/>
-        <v>-8857.1600000000017</v>
+        <v>-530.96000000000015</v>
       </c>
       <c r="K107" s="3">
         <f t="shared" si="34"/>
-        <v>-8857.1600000000017</v>
+        <v>-530.96000000000015</v>
       </c>
       <c r="L107" s="3">
         <f t="shared" si="34"/>
-        <v>-8857.1600000000017</v>
+        <v>-530.96000000000015</v>
       </c>
       <c r="M107" s="3">
         <f t="shared" si="34"/>
-        <v>-8857.1600000000017</v>
+        <v>-530.96000000000015</v>
       </c>
       <c r="N107" s="3">
         <f t="shared" si="34"/>
-        <v>-8857.1600000000017</v>
+        <v>-530.96000000000015</v>
       </c>
       <c r="O107" s="3">
         <f t="shared" si="34"/>
-        <v>-8857.1600000000017</v>
+        <v>-530.96000000000015</v>
       </c>
       <c r="P107" s="3">
         <f t="shared" si="34"/>
-        <v>-8857.1600000000017</v>
+        <v>-530.96000000000015</v>
       </c>
       <c r="Q107" s="3">
         <f t="shared" si="34"/>
-        <v>-8857.1600000000017</v>
+        <v>-530.96000000000015</v>
       </c>
       <c r="R107" s="3">
         <f t="shared" si="34"/>
-        <v>-8857.1600000000017</v>
+        <v>-530.96000000000015</v>
       </c>
       <c r="S107" s="3">
         <f t="shared" si="34"/>
-        <v>-8857.1600000000017</v>
+        <v>-530.96000000000015</v>
       </c>
       <c r="T107" s="3">
         <f t="shared" si="34"/>
-        <v>-8857.1600000000017</v>
+        <v>-530.96000000000015</v>
       </c>
     </row>
     <row r="108" spans="1:20" hidden="1" outlineLevel="1">
@@ -6804,51 +6690,51 @@
       <c r="H108" s="56"/>
       <c r="I108" s="48">
         <f>-SLN(I$106,0,I$25)</f>
-        <v>-11514.307999999999</v>
+        <v>-690.24800000000005</v>
       </c>
       <c r="J108" s="56">
         <f t="shared" ref="J108:T108" si="35">I108</f>
-        <v>-11514.307999999999</v>
+        <v>-690.24800000000005</v>
       </c>
       <c r="K108" s="56">
         <f t="shared" si="35"/>
-        <v>-11514.307999999999</v>
+        <v>-690.24800000000005</v>
       </c>
       <c r="L108" s="56">
         <f t="shared" si="35"/>
-        <v>-11514.307999999999</v>
+        <v>-690.24800000000005</v>
       </c>
       <c r="M108" s="56">
         <f t="shared" si="35"/>
-        <v>-11514.307999999999</v>
+        <v>-690.24800000000005</v>
       </c>
       <c r="N108" s="56">
         <f t="shared" si="35"/>
-        <v>-11514.307999999999</v>
+        <v>-690.24800000000005</v>
       </c>
       <c r="O108" s="56">
         <f t="shared" si="35"/>
-        <v>-11514.307999999999</v>
+        <v>-690.24800000000005</v>
       </c>
       <c r="P108" s="56">
         <f t="shared" si="35"/>
-        <v>-11514.307999999999</v>
+        <v>-690.24800000000005</v>
       </c>
       <c r="Q108" s="56">
         <f t="shared" si="35"/>
-        <v>-11514.307999999999</v>
+        <v>-690.24800000000005</v>
       </c>
       <c r="R108" s="56">
         <f t="shared" si="35"/>
-        <v>-11514.307999999999</v>
+        <v>-690.24800000000005</v>
       </c>
       <c r="S108" s="56">
         <f t="shared" si="35"/>
-        <v>-11514.307999999999</v>
+        <v>-690.24800000000005</v>
       </c>
       <c r="T108" s="56">
         <f t="shared" si="35"/>
-        <v>-11514.307999999999</v>
+        <v>-690.24800000000005</v>
       </c>
     </row>
     <row r="109" spans="1:20" hidden="1" outlineLevel="1">
@@ -6863,47 +6749,47 @@
       <c r="I109" s="56"/>
       <c r="J109" s="48">
         <f>-SLN(J$106,0,J$25)</f>
-        <v>-14968.600400000003</v>
+        <v>-897.32240000000024</v>
       </c>
       <c r="K109" s="56">
         <f t="shared" ref="K109:T109" si="36">J109</f>
-        <v>-14968.600400000003</v>
+        <v>-897.32240000000024</v>
       </c>
       <c r="L109" s="56">
         <f t="shared" si="36"/>
-        <v>-14968.600400000003</v>
+        <v>-897.32240000000024</v>
       </c>
       <c r="M109" s="56">
         <f t="shared" si="36"/>
-        <v>-14968.600400000003</v>
+        <v>-897.32240000000024</v>
       </c>
       <c r="N109" s="56">
         <f t="shared" si="36"/>
-        <v>-14968.600400000003</v>
+        <v>-897.32240000000024</v>
       </c>
       <c r="O109" s="56">
         <f t="shared" si="36"/>
-        <v>-14968.600400000003</v>
+        <v>-897.32240000000024</v>
       </c>
       <c r="P109" s="56">
         <f t="shared" si="36"/>
-        <v>-14968.600400000003</v>
+        <v>-897.32240000000024</v>
       </c>
       <c r="Q109" s="56">
         <f t="shared" si="36"/>
-        <v>-14968.600400000003</v>
+        <v>-897.32240000000024</v>
       </c>
       <c r="R109" s="56">
         <f t="shared" si="36"/>
-        <v>-14968.600400000003</v>
+        <v>-897.32240000000024</v>
       </c>
       <c r="S109" s="56">
         <f t="shared" si="36"/>
-        <v>-14968.600400000003</v>
+        <v>-897.32240000000024</v>
       </c>
       <c r="T109" s="56">
         <f t="shared" si="36"/>
-        <v>-14968.600400000003</v>
+        <v>-897.32240000000024</v>
       </c>
     </row>
     <row r="110" spans="1:20" hidden="1" outlineLevel="1">
@@ -6919,43 +6805,43 @@
       <c r="J110" s="56"/>
       <c r="K110" s="48">
         <f>-SLN(K$106,0,K$25)</f>
-        <v>-19459.180519999998</v>
+        <v>-1166.5191200000002</v>
       </c>
       <c r="L110" s="56">
         <f t="shared" ref="L110:T110" si="37">K110</f>
-        <v>-19459.180519999998</v>
+        <v>-1166.5191200000002</v>
       </c>
       <c r="M110" s="56">
         <f t="shared" si="37"/>
-        <v>-19459.180519999998</v>
+        <v>-1166.5191200000002</v>
       </c>
       <c r="N110" s="56">
         <f t="shared" si="37"/>
-        <v>-19459.180519999998</v>
+        <v>-1166.5191200000002</v>
       </c>
       <c r="O110" s="56">
         <f t="shared" si="37"/>
-        <v>-19459.180519999998</v>
+        <v>-1166.5191200000002</v>
       </c>
       <c r="P110" s="56">
         <f t="shared" si="37"/>
-        <v>-19459.180519999998</v>
+        <v>-1166.5191200000002</v>
       </c>
       <c r="Q110" s="56">
         <f t="shared" si="37"/>
-        <v>-19459.180519999998</v>
+        <v>-1166.5191200000002</v>
       </c>
       <c r="R110" s="56">
         <f t="shared" si="37"/>
-        <v>-19459.180519999998</v>
+        <v>-1166.5191200000002</v>
       </c>
       <c r="S110" s="56">
         <f t="shared" si="37"/>
-        <v>-19459.180519999998</v>
+        <v>-1166.5191200000002</v>
       </c>
       <c r="T110" s="56">
         <f t="shared" si="37"/>
-        <v>-19459.180519999998</v>
+        <v>-1166.5191200000002</v>
       </c>
     </row>
     <row r="111" spans="1:20" hidden="1" outlineLevel="1">
@@ -6972,39 +6858,39 @@
       <c r="K111" s="56"/>
       <c r="L111" s="48">
         <f>-SLN(L$106,0,L$25)</f>
-        <v>-25296.934676000012</v>
+        <v>-1516.4748560000007</v>
       </c>
       <c r="M111" s="3">
         <f t="shared" ref="M111:T111" si="38">L111</f>
-        <v>-25296.934676000012</v>
+        <v>-1516.4748560000007</v>
       </c>
       <c r="N111" s="3">
         <f t="shared" si="38"/>
-        <v>-25296.934676000012</v>
+        <v>-1516.4748560000007</v>
       </c>
       <c r="O111" s="3">
         <f t="shared" si="38"/>
-        <v>-25296.934676000012</v>
+        <v>-1516.4748560000007</v>
       </c>
       <c r="P111" s="3">
         <f t="shared" si="38"/>
-        <v>-25296.934676000012</v>
+        <v>-1516.4748560000007</v>
       </c>
       <c r="Q111" s="3">
         <f t="shared" si="38"/>
-        <v>-25296.934676000012</v>
+        <v>-1516.4748560000007</v>
       </c>
       <c r="R111" s="3">
         <f t="shared" si="38"/>
-        <v>-25296.934676000012</v>
+        <v>-1516.4748560000007</v>
       </c>
       <c r="S111" s="3">
         <f t="shared" si="38"/>
-        <v>-25296.934676000012</v>
+        <v>-1516.4748560000007</v>
       </c>
       <c r="T111" s="3">
         <f t="shared" si="38"/>
-        <v>-25296.934676000012</v>
+        <v>-1516.4748560000007</v>
       </c>
     </row>
     <row r="112" spans="1:20" hidden="1" outlineLevel="1">
@@ -7022,35 +6908,35 @@
       <c r="J112" s="56"/>
       <c r="M112" s="48">
         <f>-SLN(M$106,0,M$25)</f>
-        <v>-32886.015078800017</v>
+        <v>-1971.4173128000004</v>
       </c>
       <c r="N112" s="3">
         <f t="shared" ref="N112:T112" si="39">M112</f>
-        <v>-32886.015078800017</v>
+        <v>-1971.4173128000004</v>
       </c>
       <c r="O112" s="3">
         <f t="shared" si="39"/>
-        <v>-32886.015078800017</v>
+        <v>-1971.4173128000004</v>
       </c>
       <c r="P112" s="3">
         <f t="shared" si="39"/>
-        <v>-32886.015078800017</v>
+        <v>-1971.4173128000004</v>
       </c>
       <c r="Q112" s="3">
         <f t="shared" si="39"/>
-        <v>-32886.015078800017</v>
+        <v>-1971.4173128000004</v>
       </c>
       <c r="R112" s="3">
         <f t="shared" si="39"/>
-        <v>-32886.015078800017</v>
+        <v>-1971.4173128000004</v>
       </c>
       <c r="S112" s="3">
         <f t="shared" si="39"/>
-        <v>-32886.015078800017</v>
+        <v>-1971.4173128000004</v>
       </c>
       <c r="T112" s="3">
         <f t="shared" si="39"/>
-        <v>-32886.015078800017</v>
+        <v>-1971.4173128000004</v>
       </c>
     </row>
     <row r="113" spans="1:20" hidden="1" outlineLevel="1">
@@ -7068,31 +6954,31 @@
       <c r="J113" s="56"/>
       <c r="N113" s="48">
         <f>-SLN(N$106,0,N$25)</f>
-        <v>-42751.819602440017</v>
+        <v>-2562.8425066400009</v>
       </c>
       <c r="O113" s="3">
         <f t="shared" ref="O113:T113" si="40">N113</f>
-        <v>-42751.819602440017</v>
+        <v>-2562.8425066400009</v>
       </c>
       <c r="P113" s="3">
         <f t="shared" si="40"/>
-        <v>-42751.819602440017</v>
+        <v>-2562.8425066400009</v>
       </c>
       <c r="Q113" s="3">
         <f t="shared" si="40"/>
-        <v>-42751.819602440017</v>
+        <v>-2562.8425066400009</v>
       </c>
       <c r="R113" s="3">
         <f t="shared" si="40"/>
-        <v>-42751.819602440017</v>
+        <v>-2562.8425066400009</v>
       </c>
       <c r="S113" s="3">
         <f t="shared" si="40"/>
-        <v>-42751.819602440017</v>
+        <v>-2562.8425066400009</v>
       </c>
       <c r="T113" s="3">
         <f t="shared" si="40"/>
-        <v>-42751.819602440017</v>
+        <v>-2562.8425066400009</v>
       </c>
     </row>
     <row r="114" spans="1:20" hidden="1" outlineLevel="1">
@@ -7110,27 +6996,27 @@
       <c r="J114" s="56"/>
       <c r="O114" s="48">
         <f>-SLN(O$106,0,O$25)</f>
-        <v>-55577.36548317202</v>
+        <v>-3331.6952586320017</v>
       </c>
       <c r="P114" s="3">
         <f>O114</f>
-        <v>-55577.36548317202</v>
+        <v>-3331.6952586320017</v>
       </c>
       <c r="Q114" s="3">
         <f>P114</f>
-        <v>-55577.36548317202</v>
+        <v>-3331.6952586320017</v>
       </c>
       <c r="R114" s="3">
         <f>Q114</f>
-        <v>-55577.36548317202</v>
+        <v>-3331.6952586320017</v>
       </c>
       <c r="S114" s="3">
         <f>R114</f>
-        <v>-55577.36548317202</v>
+        <v>-3331.6952586320017</v>
       </c>
       <c r="T114" s="3">
         <f>S114</f>
-        <v>-55577.36548317202</v>
+        <v>-3331.6952586320017</v>
       </c>
     </row>
     <row r="115" spans="1:20" hidden="1" outlineLevel="1">
@@ -7148,23 +7034,23 @@
       <c r="J115" s="56"/>
       <c r="P115" s="48">
         <f>-SLN(P$106,0,P$25)</f>
-        <v>-72250.57512812363</v>
+        <v>-4331.2038362216026</v>
       </c>
       <c r="Q115" s="3">
         <f>P115</f>
-        <v>-72250.57512812363</v>
+        <v>-4331.2038362216026</v>
       </c>
       <c r="R115" s="3">
         <f>Q115</f>
-        <v>-72250.57512812363</v>
+        <v>-4331.2038362216026</v>
       </c>
       <c r="S115" s="3">
         <f>R115</f>
-        <v>-72250.57512812363</v>
+        <v>-4331.2038362216026</v>
       </c>
       <c r="T115" s="3">
         <f>S115</f>
-        <v>-72250.57512812363</v>
+        <v>-4331.2038362216026</v>
       </c>
     </row>
     <row r="116" spans="1:20" hidden="1" outlineLevel="1">
@@ -7182,19 +7068,19 @@
       <c r="J116" s="56"/>
       <c r="Q116" s="48">
         <f>-SLN(Q$106,0,Q$25)</f>
-        <v>-93925.747666560739</v>
+        <v>-5630.5649870880843</v>
       </c>
       <c r="R116" s="3">
         <f>Q116</f>
-        <v>-93925.747666560739</v>
+        <v>-5630.5649870880843</v>
       </c>
       <c r="S116" s="3">
         <f>R116</f>
-        <v>-93925.747666560739</v>
+        <v>-5630.5649870880843</v>
       </c>
       <c r="T116" s="3">
         <f>S116</f>
-        <v>-93925.747666560739</v>
+        <v>-5630.5649870880843</v>
       </c>
     </row>
     <row r="117" spans="1:20" hidden="1" outlineLevel="1">
@@ -7212,15 +7098,15 @@
       <c r="J117" s="56"/>
       <c r="R117" s="48">
         <f>-SLN(R$106,0,R$25)</f>
-        <v>-122103.47196652896</v>
+        <v>-7319.7344832145063</v>
       </c>
       <c r="S117" s="3">
         <f>R117</f>
-        <v>-122103.47196652896</v>
+        <v>-7319.7344832145063</v>
       </c>
       <c r="T117" s="3">
         <f>S117</f>
-        <v>-122103.47196652896</v>
+        <v>-7319.7344832145063</v>
       </c>
     </row>
     <row r="118" spans="1:20" hidden="1" outlineLevel="1">
@@ -7238,11 +7124,11 @@
       <c r="J118" s="56"/>
       <c r="S118" s="48">
         <f>-SLN(S$106,0,S$25)</f>
-        <v>-158734.51355648768</v>
+        <v>-9515.65482817886</v>
       </c>
       <c r="T118" s="3">
         <f>S118</f>
-        <v>-158734.51355648768</v>
+        <v>-9515.65482817886</v>
       </c>
     </row>
     <row r="119" spans="1:20" hidden="1" outlineLevel="1">
@@ -7260,7 +7146,7 @@
       <c r="J119" s="56"/>
       <c r="T119" s="48">
         <f>-SLN(T$106,0,T$25)</f>
-        <v>-206354.86762343397</v>
+        <v>-12370.351276632522</v>
       </c>
     </row>
     <row r="120" spans="1:20" hidden="1" outlineLevel="1">
@@ -7301,55 +7187,55 @@
       <c r="G122" s="14"/>
       <c r="H122" s="14">
         <f t="shared" ref="H122:T122" si="41">SUM(H107:H120)+H104</f>
-        <v>-36611.160000000003</v>
+        <v>-530.96000000000015</v>
       </c>
       <c r="I122" s="14">
         <f t="shared" si="41"/>
-        <v>-48125.468000000001</v>
+        <v>-1221.2080000000001</v>
       </c>
       <c r="J122" s="14">
         <f t="shared" si="41"/>
-        <v>-63094.068400000004</v>
+        <v>-2118.5304000000006</v>
       </c>
       <c r="K122" s="14">
         <f t="shared" si="41"/>
-        <v>-82553.248919999998</v>
+        <v>-3285.0495200000005</v>
       </c>
       <c r="L122" s="14">
         <f t="shared" si="41"/>
-        <v>-107850.18359600002</v>
+        <v>-4801.5243760000012</v>
       </c>
       <c r="M122" s="14">
         <f t="shared" si="41"/>
-        <v>-140736.19867480005</v>
+        <v>-6772.9416888000014</v>
       </c>
       <c r="N122" s="14">
         <f t="shared" si="41"/>
-        <v>-183488.01827724004</v>
+        <v>-9335.7841954400028</v>
       </c>
       <c r="O122" s="14">
         <f t="shared" si="41"/>
-        <v>-239065.38376041205</v>
+        <v>-12667.479454072005</v>
       </c>
       <c r="P122" s="14">
         <f t="shared" si="41"/>
-        <v>-311315.95888853568</v>
+        <v>-16998.683290293608</v>
       </c>
       <c r="Q122" s="14">
         <f t="shared" si="41"/>
-        <v>-405241.70655509643</v>
+        <v>-22629.248277381692</v>
       </c>
       <c r="R122" s="14">
         <f t="shared" si="41"/>
-        <v>-527345.17852162546</v>
+        <v>-29948.982760596198</v>
       </c>
       <c r="S122" s="14">
         <f t="shared" si="41"/>
-        <v>-686079.69207811309</v>
+        <v>-39464.637588775062</v>
       </c>
       <c r="T122" s="14">
         <f t="shared" si="41"/>
-        <v>-892434.55970154703</v>
+        <v>-51834.988865407584</v>
       </c>
     </row>
     <row r="123" spans="1:20" hidden="1" outlineLevel="1">
@@ -7376,55 +7262,55 @@
       <c r="G124" s="14"/>
       <c r="H124" s="14">
         <f t="shared" ref="H124:T124" si="42">H95+H122</f>
-        <v>-1049904.2066666665</v>
+        <v>-267964.13999999996</v>
       </c>
       <c r="I124" s="14">
         <f t="shared" si="42"/>
-        <v>-1409081.6486666668</v>
+        <v>-616317.522</v>
       </c>
       <c r="J124" s="14">
         <f t="shared" si="42"/>
-        <v>-1876012.3232666668</v>
+        <v>-1069176.9186000002</v>
       </c>
       <c r="K124" s="14">
         <f t="shared" si="42"/>
-        <v>-2483022.200246667</v>
+        <v>-1657894.1341800001</v>
       </c>
       <c r="L124" s="14">
         <f t="shared" si="42"/>
-        <v>-3272135.040320667</v>
+        <v>-2423226.514434</v>
       </c>
       <c r="M124" s="14">
         <f t="shared" si="42"/>
-        <v>-4297981.7324168673</v>
+        <v>-3418158.6087642005</v>
       </c>
       <c r="N124" s="14">
         <f t="shared" si="42"/>
-        <v>-5631582.4321419271</v>
+        <v>-4711570.3313934598</v>
       </c>
       <c r="O124" s="14">
         <f t="shared" si="42"/>
-        <v>-7365263.3417845061</v>
+        <v>-6393005.5708114989</v>
       </c>
       <c r="P124" s="14">
         <f t="shared" si="42"/>
-        <v>-9619048.5243198592</v>
+        <v>-8578871.3820549492</v>
       </c>
       <c r="Q124" s="14">
         <f t="shared" si="42"/>
-        <v>-12548969.261615817</v>
+        <v>-11420496.936671434</v>
       </c>
       <c r="R124" s="14">
         <f t="shared" si="42"/>
-        <v>-16357866.220100563</v>
+        <v>-15114610.157672867</v>
       </c>
       <c r="S124" s="14">
         <f t="shared" si="42"/>
-        <v>-21309432.266130734</v>
+        <v>-19916957.34497473</v>
       </c>
       <c r="T124" s="14">
         <f t="shared" si="42"/>
-        <v>-27746468.125969954</v>
+        <v>-26160008.688467149</v>
       </c>
     </row>
     <row r="125" spans="1:20" collapsed="1">
@@ -7857,55 +7743,55 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26">
         <f>'Assumption Table'!H124</f>
-        <v>-1049904.2066666665</v>
+        <v>-267964.13999999996</v>
       </c>
       <c r="I9" s="26">
         <f>'Assumption Table'!I124</f>
-        <v>-1409081.6486666668</v>
+        <v>-616317.522</v>
       </c>
       <c r="J9" s="26">
         <f>'Assumption Table'!J124</f>
-        <v>-1876012.3232666668</v>
+        <v>-1069176.9186000002</v>
       </c>
       <c r="K9" s="26">
         <f>'Assumption Table'!K124</f>
-        <v>-2483022.200246667</v>
+        <v>-1657894.1341800001</v>
       </c>
       <c r="L9" s="26">
         <f>'Assumption Table'!L124</f>
-        <v>-3272135.040320667</v>
+        <v>-2423226.514434</v>
       </c>
       <c r="M9" s="26">
         <f>'Assumption Table'!M124</f>
-        <v>-4297981.7324168673</v>
+        <v>-3418158.6087642005</v>
       </c>
       <c r="N9" s="26">
         <f>'Assumption Table'!N124</f>
-        <v>-5631582.4321419271</v>
+        <v>-4711570.3313934598</v>
       </c>
       <c r="O9" s="26">
         <f>'Assumption Table'!O124</f>
-        <v>-7365263.3417845061</v>
+        <v>-6393005.5708114989</v>
       </c>
       <c r="P9" s="26">
         <f>'Assumption Table'!P124</f>
-        <v>-9619048.5243198592</v>
+        <v>-8578871.3820549492</v>
       </c>
       <c r="Q9" s="26">
         <f>'Assumption Table'!Q124</f>
-        <v>-12548969.261615817</v>
+        <v>-11420496.936671434</v>
       </c>
       <c r="R9" s="26">
         <f>'Assumption Table'!R124</f>
-        <v>-16357866.220100563</v>
+        <v>-15114610.157672867</v>
       </c>
       <c r="S9" s="26">
         <f>'Assumption Table'!S124</f>
-        <v>-21309432.266130734</v>
+        <v>-19916957.34497473</v>
       </c>
       <c r="T9" s="26">
         <f>'Assumption Table'!T124</f>
-        <v>-27746468.125969954</v>
+        <v>-26160008.688467149</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.5" customHeight="1">
@@ -8169,55 +8055,55 @@
       </c>
       <c r="H13" s="26">
         <f t="shared" ref="H13:T13" si="1">SUM(H8:H12)</f>
-        <v>-1049904.2066666665</v>
+        <v>-267964.13999999996</v>
       </c>
       <c r="I13" s="26">
         <f t="shared" si="1"/>
-        <v>-1409081.6486666668</v>
+        <v>-616317.522</v>
       </c>
       <c r="J13" s="26">
         <f t="shared" si="1"/>
-        <v>-1876012.3232666668</v>
+        <v>-1069176.9186000002</v>
       </c>
       <c r="K13" s="26">
         <f t="shared" si="1"/>
-        <v>-2483022.200246667</v>
+        <v>-1657894.1341800001</v>
       </c>
       <c r="L13" s="26">
         <f t="shared" si="1"/>
-        <v>-3272135.040320667</v>
+        <v>-2423226.514434</v>
       </c>
       <c r="M13" s="26">
         <f t="shared" si="1"/>
-        <v>-4297981.7324168673</v>
+        <v>-3418158.6087642005</v>
       </c>
       <c r="N13" s="26">
         <f t="shared" si="1"/>
-        <v>-5631582.4321419271</v>
+        <v>-4711570.3313934598</v>
       </c>
       <c r="O13" s="26">
         <f t="shared" si="1"/>
-        <v>-7365263.3417845061</v>
+        <v>-6393005.5708114989</v>
       </c>
       <c r="P13" s="26">
         <f t="shared" si="1"/>
-        <v>-9619048.5243198592</v>
+        <v>-8578871.3820549492</v>
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="1"/>
-        <v>-12548969.261615817</v>
+        <v>-11420496.936671434</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="1"/>
-        <v>-16357866.220100563</v>
+        <v>-15114610.157672867</v>
       </c>
       <c r="S13" s="26">
         <f t="shared" si="1"/>
-        <v>-21309432.266130734</v>
+        <v>-19916957.34497473</v>
       </c>
       <c r="T13" s="26">
         <f t="shared" si="1"/>
-        <v>-27746468.125969954</v>
+        <v>-26160008.688467149</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.5" customHeight="1">
@@ -8247,7 +8133,7 @@
       </c>
       <c r="H14" s="26">
         <f>'Assumption Table'!H68</f>
-        <v>769560.32000000007</v>
+        <v>0</v>
       </c>
       <c r="I14" s="26" t="e">
         <f>'Assumption Table'!I68</f>
@@ -8325,55 +8211,55 @@
       </c>
       <c r="H15" s="26">
         <f>-'Assumption Table'!H64</f>
-        <v>-788170.87125000008</v>
+        <v>-50143.721249999995</v>
       </c>
       <c r="I15" s="26">
         <f>-'Assumption Table'!I64</f>
-        <v>-853357.70887500013</v>
+        <v>-115330.55887500002</v>
       </c>
       <c r="J15" s="26">
         <f>-'Assumption Table'!J64</f>
-        <v>-938100.59778750024</v>
+        <v>-200073.44778750004</v>
       </c>
       <c r="K15" s="26">
         <f>-'Assumption Table'!K64</f>
-        <v>-1048266.3533737501</v>
+        <v>-310239.20337375003</v>
       </c>
       <c r="L15" s="26">
         <f>-'Assumption Table'!L64</f>
-        <v>-1191481.8356358751</v>
+        <v>-453454.6856358751</v>
       </c>
       <c r="M15" s="26">
         <f>-'Assumption Table'!M64</f>
-        <v>-1377661.962576638</v>
+        <v>-639634.8125766376</v>
       </c>
       <c r="N15" s="26">
         <f>-'Assumption Table'!N64</f>
-        <v>-1619696.1275996291</v>
+        <v>-881668.97759962885</v>
       </c>
       <c r="O15" s="26">
         <f>-'Assumption Table'!O64</f>
-        <v>-1934340.5421295178</v>
+        <v>-1196313.3921295176</v>
       </c>
       <c r="P15" s="26">
         <f>-'Assumption Table'!P64</f>
-        <v>-2343378.2810183736</v>
+        <v>-1605351.1310183732</v>
       </c>
       <c r="Q15" s="26">
         <f>-'Assumption Table'!Q64</f>
-        <v>-2875127.3415738856</v>
+        <v>-2137100.1915738853</v>
       </c>
       <c r="R15" s="26">
         <f>-'Assumption Table'!R64</f>
-        <v>-3566401.1202960508</v>
+        <v>-2828373.9702960509</v>
       </c>
       <c r="S15" s="26">
         <f>-'Assumption Table'!S64</f>
-        <v>-4465057.0326348664</v>
+        <v>-3727029.8826348665</v>
       </c>
       <c r="T15" s="26">
         <f>-'Assumption Table'!T64</f>
-        <v>-5633309.7186753266</v>
+        <v>-4895282.5686753271</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.5" customHeight="1">
@@ -8403,7 +8289,7 @@
       </c>
       <c r="H16" s="26">
         <f t="shared" si="2"/>
-        <v>-18610.551250000019</v>
+        <v>-50143.721249999995</v>
       </c>
       <c r="I16" s="26" t="e">
         <f t="shared" si="2"/>
@@ -8559,7 +8445,7 @@
       </c>
       <c r="H18" s="26">
         <f t="shared" ref="H18:T18" si="3">SUM(H13,H16,H17)</f>
-        <v>-1068514.7579166666</v>
+        <v>-318107.86124999996</v>
       </c>
       <c r="I18" s="26" t="e">
         <f t="shared" si="3"/>
@@ -8637,7 +8523,7 @@
       </c>
       <c r="H19" s="26">
         <f>-H18*'Assumption Table'!H13</f>
-        <v>213702.95158333331</v>
+        <v>63621.572249999997</v>
       </c>
       <c r="I19" s="26" t="e">
         <f>-I18*'Assumption Table'!I13</f>
@@ -8715,7 +8601,7 @@
       </c>
       <c r="H20" s="26">
         <f t="shared" ref="H20:T20" si="4">SUM(H18:H19)</f>
-        <v>-854811.80633333325</v>
+        <v>-254486.28899999996</v>
       </c>
       <c r="I20" s="26" t="e">
         <f t="shared" si="4"/>
@@ -8916,19 +8802,19 @@
       </c>
       <c r="D27" s="7">
         <f>'Financial Numbers From AR'!D15</f>
-        <v>1296215</v>
+        <v>0</v>
       </c>
       <c r="E27" s="7">
         <f>'Financial Numbers From AR'!E15</f>
-        <v>8938341</v>
+        <v>0</v>
       </c>
       <c r="F27" s="7">
         <f>'Financial Numbers From AR'!F15</f>
-        <v>27854224</v>
+        <v>0</v>
       </c>
       <c r="G27" s="7">
         <f>'Financial Numbers From AR'!G15</f>
-        <v>38478016</v>
+        <v>0</v>
       </c>
       <c r="H27" s="7" t="e">
         <f t="shared" ref="H27:T27" si="5">H94</f>
@@ -8995,19 +8881,19 @@
       </c>
       <c r="D28" s="7">
         <f>'Financial Numbers From AR'!D16</f>
-        <v>8303</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7">
         <f>'Financial Numbers From AR'!E16</f>
-        <v>115549</v>
+        <v>0</v>
       </c>
       <c r="F28" s="7">
         <f>'Financial Numbers From AR'!F16</f>
-        <v>120541</v>
+        <v>0</v>
       </c>
       <c r="G28" s="7">
         <f>'Financial Numbers From AR'!G16</f>
-        <v>48381</v>
+        <v>0</v>
       </c>
       <c r="H28" s="7" t="e">
         <f>'FA &amp; Operating Model'!H6/'Assumption Table'!H29</f>
@@ -9074,19 +8960,19 @@
       </c>
       <c r="D29" s="7">
         <f>'Financial Numbers From AR'!D17</f>
-        <v>518086</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7">
         <f>'Financial Numbers From AR'!E17</f>
-        <v>1048004</v>
+        <v>0</v>
       </c>
       <c r="F29" s="7">
         <f>'Financial Numbers From AR'!F17</f>
-        <v>1617890</v>
+        <v>0</v>
       </c>
       <c r="G29" s="7">
         <f>'Financial Numbers From AR'!G17</f>
-        <v>6804693</v>
+        <v>0</v>
       </c>
       <c r="H29" s="7" t="e">
         <f>H7/'Assumption Table'!H28</f>
@@ -9153,19 +9039,19 @@
       </c>
       <c r="D30" s="7">
         <f>'Financial Numbers From AR'!D18</f>
-        <v>812956</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7">
         <f>'Financial Numbers From AR'!E18</f>
-        <v>353655</v>
+        <v>0</v>
       </c>
       <c r="F30" s="7">
         <f>'Financial Numbers From AR'!F18</f>
-        <v>480680</v>
+        <v>0</v>
       </c>
       <c r="G30" s="7">
         <f>'Financial Numbers From AR'!G18</f>
-        <v>1689860</v>
+        <v>0</v>
       </c>
       <c r="H30" s="7" t="e">
         <f>'FA &amp; Operating Model'!H7/'Assumption Table'!H30</f>
@@ -9232,71 +9118,71 @@
       </c>
       <c r="D31" s="7">
         <f>D32-SUM(D27:D30)</f>
-        <v>2430279</v>
+        <v>5065839</v>
       </c>
       <c r="E31" s="7">
         <f>E32-SUM(E27:E30)</f>
-        <v>20935560</v>
+        <v>31391109</v>
       </c>
       <c r="F31" s="7">
         <f>F32-SUM(F27:F30)</f>
-        <v>22307079</v>
+        <v>52380414</v>
       </c>
       <c r="G31" s="7">
         <f>G32-SUM(G27:G30)</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="H31" s="7">
         <f>'Assumption Table'!H16</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="I31" s="7">
         <f>'Assumption Table'!I16</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="J31" s="7">
         <f>'Assumption Table'!J16</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="K31" s="7">
         <f>'Assumption Table'!K16</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="L31" s="7">
         <f>'Assumption Table'!L16</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="M31" s="7">
         <f>'Assumption Table'!M16</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="N31" s="7">
         <f>'Assumption Table'!N16</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="O31" s="7">
         <f>'Assumption Table'!O16</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="P31" s="7">
         <f>'Assumption Table'!P16</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="Q31" s="7">
         <f>'Assumption Table'!Q16</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="R31" s="7">
         <f>'Assumption Table'!R16</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="S31" s="7">
         <f>'Assumption Table'!S16</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="T31" s="7">
         <f>'Assumption Table'!T16</f>
-        <v>19971537</v>
+        <v>66992487</v>
       </c>
       <c r="U31" s="89"/>
     </row>
@@ -9438,71 +9324,71 @@
       </c>
       <c r="D35" s="7">
         <f>'Financial Numbers From AR'!D22</f>
-        <v>2795122</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7">
         <f>'Financial Numbers From AR'!E22</f>
-        <v>2478687</v>
+        <v>0</v>
       </c>
       <c r="F35" s="7">
         <f>'Financial Numbers From AR'!F22</f>
-        <v>4498269</v>
+        <v>0</v>
       </c>
       <c r="G35" s="7">
         <f>'Financial Numbers From AR'!G22</f>
-        <v>11187898</v>
+        <v>0</v>
       </c>
       <c r="H35" s="7">
         <f>'Assumption Table'!H73</f>
-        <v>14186102.653333332</v>
+        <v>3744064.5199999996</v>
       </c>
       <c r="I35" s="7">
         <f>'Assumption Table'!I73</f>
-        <v>18040093.482666668</v>
+        <v>8343915.2160000019</v>
       </c>
       <c r="J35" s="7">
         <f>'Assumption Table'!J73</f>
-        <v>23006606.340800002</v>
+        <v>14056287.940800004</v>
       </c>
       <c r="K35" s="7">
         <f>'Assumption Table'!K73</f>
-        <v>29419397.836373337</v>
+        <v>21214939.303040002</v>
       </c>
       <c r="L35" s="7">
         <f>'Assumption Table'!L73</f>
-        <v>37712351.560618669</v>
+        <v>30253752.893952005</v>
       </c>
       <c r="M35" s="7">
         <f>'Assumption Table'!M73</f>
-        <v>48449516.182137609</v>
+        <v>41736777.382137612</v>
       </c>
       <c r="N35" s="7">
         <f>'Assumption Table'!N73</f>
-        <v>62364154.970112219</v>
+        <v>56397276.036778882</v>
       </c>
       <c r="O35" s="7">
         <f>'Assumption Table'!O73</f>
-        <v>80409510.174479216</v>
+        <v>75188491.107812554</v>
       </c>
       <c r="P35" s="7">
         <f>'Assumption Table'!P73</f>
-        <v>103824796.72015634</v>
+        <v>99349637.520156339</v>
       </c>
       <c r="Q35" s="7">
         <f>'Assumption Table'!Q73</f>
-        <v>134220994.00953659</v>
+        <v>130491694.67620325</v>
       </c>
       <c r="R35" s="7">
         <f>'Assumption Table'!R73</f>
-        <v>173692375.26573089</v>
+        <v>170708935.79906422</v>
       </c>
       <c r="S35" s="7">
         <f>'Assumption Table'!S73</f>
-        <v>224961495.67878354</v>
+        <v>222723916.07878351</v>
       </c>
       <c r="T35" s="7">
         <f>'Assumption Table'!T73</f>
-        <v>291567676.99575198</v>
+        <v>290075957.26241863</v>
       </c>
       <c r="U35" s="89"/>
     </row>
@@ -9529,59 +9415,59 @@
       </c>
       <c r="G36" s="7">
         <f>'Financial Numbers From AR'!G23</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="H36" s="7">
         <f>'Assumption Table'!G17</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
         <f>'Assumption Table'!H17</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7">
         <f>'Assumption Table'!I17</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="K36" s="7">
         <f>'Assumption Table'!J17</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="L36" s="7">
         <f>'Assumption Table'!K17</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="M36" s="7">
         <f>'Assumption Table'!L17</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
         <f>'Assumption Table'!M17</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7">
         <f>'Assumption Table'!N17</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="P36" s="7">
         <f>'Assumption Table'!O17</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="7">
         <f>'Assumption Table'!P17</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="R36" s="7">
         <f>'Assumption Table'!Q17</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="S36" s="7">
         <f>'Assumption Table'!R17</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="T36" s="7">
         <f>'Assumption Table'!S17</f>
-        <v>5484</v>
+        <v>0</v>
       </c>
       <c r="U36" s="89"/>
     </row>
@@ -9596,71 +9482,71 @@
       </c>
       <c r="D37" s="7">
         <f>'Financial Numbers From AR'!D24</f>
-        <v>673867</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7">
         <f>'Financial Numbers From AR'!E24</f>
-        <v>683281</v>
+        <v>0</v>
       </c>
       <c r="F37" s="7">
         <f>'Financial Numbers From AR'!F24</f>
-        <v>751460</v>
+        <v>0</v>
       </c>
       <c r="G37" s="7">
         <f>'Financial Numbers From AR'!G24</f>
-        <v>832620</v>
+        <v>0</v>
       </c>
       <c r="H37" s="7">
         <f>'Assumption Table'!H100</f>
-        <v>1061723.6400000001</v>
+        <v>15397.840000000004</v>
       </c>
       <c r="I37" s="7">
         <f>'Assumption Table'!I100</f>
-        <v>1359027.412</v>
+        <v>34884.072000000007</v>
       </c>
       <c r="J37" s="7">
         <f>'Assumption Table'!J100</f>
-        <v>1744991.3556000001</v>
+        <v>59685.21360000001</v>
       </c>
       <c r="K37" s="7">
         <f>'Assumption Table'!K100</f>
-        <v>2246213.5222800002</v>
+        <v>91395.73768000002</v>
       </c>
       <c r="L37" s="7">
         <f>'Assumption Table'!L100</f>
-        <v>2897271.3789640004</v>
+        <v>132088.45898400003</v>
       </c>
       <c r="M37" s="7">
         <f>'Assumption Table'!M100</f>
-        <v>3743115.632653201</v>
+        <v>184458.03667920004</v>
       </c>
       <c r="N37" s="7">
         <f>'Assumption Table'!N100</f>
-        <v>4842182.2024491616</v>
+        <v>252007.52768296006</v>
       </c>
       <c r="O37" s="7">
         <f>'Assumption Table'!O100</f>
-        <v>6270437.78318391</v>
+        <v>339290.90598784812</v>
       </c>
       <c r="P37" s="7">
         <f>'Assumption Table'!P100</f>
-        <v>8126639.0781390835</v>
+        <v>452228.33778420259</v>
       </c>
       <c r="Q37" s="7">
         <f>'Assumption Table'!Q100</f>
-        <v>10539169.801580809</v>
+        <v>598516.03911946341</v>
       </c>
       <c r="R37" s="7">
         <f>'Assumption Table'!R100</f>
-        <v>13674928.782055052</v>
+        <v>788159.09085530241</v>
       </c>
       <c r="S37" s="7">
         <f>'Assumption Table'!S100</f>
-        <v>17750884.496671569</v>
+        <v>1034164.0981118931</v>
       </c>
       <c r="T37" s="7">
         <f>'Assumption Table'!T100</f>
-        <v>23049095.965673041</v>
+        <v>1353439.6475454611</v>
       </c>
       <c r="U37" s="89"/>
     </row>
@@ -9675,71 +9561,71 @@
       </c>
       <c r="D38" s="7">
         <f>D39-D35-D36-D37</f>
-        <v>978594</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7">
         <f>E39-E35-E36-E37</f>
-        <v>1820199</v>
+        <v>0</v>
       </c>
       <c r="F38" s="7">
         <f>F39-F35-F36-F37</f>
-        <v>4218770</v>
+        <v>0</v>
       </c>
       <c r="G38" s="7">
         <f>G39-G35-G36-G37</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="H38" s="7">
         <f>'Assumption Table'!H18</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
         <f>'Assumption Table'!I18</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7">
         <f>'Assumption Table'!J18</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="K38" s="7">
         <f>'Assumption Table'!K18</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="L38" s="7">
         <f>'Assumption Table'!L18</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="M38" s="7">
         <f>'Assumption Table'!M18</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="N38" s="7">
         <f>'Assumption Table'!N18</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7">
         <f>'Assumption Table'!O18</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="P38" s="7">
         <f>'Assumption Table'!P18</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="7">
         <f>'Assumption Table'!Q18</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="R38" s="7">
         <f>'Assumption Table'!R18</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="S38" s="7">
         <f>'Assumption Table'!S18</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="T38" s="7">
         <f>'Assumption Table'!T18</f>
-        <v>7519462</v>
+        <v>0</v>
       </c>
       <c r="U38" s="89"/>
     </row>
@@ -9754,71 +9640,71 @@
       </c>
       <c r="D39" s="6">
         <f>'Financial Numbers From AR'!D25</f>
-        <v>4447583</v>
+        <v>0</v>
       </c>
       <c r="E39" s="6">
         <f>'Financial Numbers From AR'!E25</f>
-        <v>4982167</v>
+        <v>0</v>
       </c>
       <c r="F39" s="6">
         <f>'Financial Numbers From AR'!F25</f>
-        <v>9468499</v>
+        <v>0</v>
       </c>
       <c r="G39" s="6">
         <f>'Financial Numbers From AR'!G25</f>
-        <v>19545464</v>
+        <v>0</v>
       </c>
       <c r="H39" s="6">
         <f t="shared" ref="H39:T39" si="7">SUM(H35:H38)</f>
-        <v>22772772.293333333</v>
+        <v>3759462.3599999994</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="7"/>
-        <v>26924066.894666668</v>
+        <v>8378799.2880000016</v>
       </c>
       <c r="J39" s="6">
         <f t="shared" si="7"/>
-        <v>32276543.696400002</v>
+        <v>14115973.154400004</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" si="7"/>
-        <v>39190557.358653337</v>
+        <v>21306335.040720001</v>
       </c>
       <c r="L39" s="6">
         <f t="shared" si="7"/>
-        <v>48134568.939582668</v>
+        <v>30385841.352936003</v>
       </c>
       <c r="M39" s="6">
         <f t="shared" si="7"/>
-        <v>59717577.814790808</v>
+        <v>41921235.418816812</v>
       </c>
       <c r="N39" s="6">
         <f t="shared" si="7"/>
-        <v>74731283.172561377</v>
+        <v>56649283.564461842</v>
       </c>
       <c r="O39" s="6">
         <f t="shared" si="7"/>
-        <v>94204893.957663119</v>
+        <v>75527782.013800398</v>
       </c>
       <c r="P39" s="6">
         <f t="shared" si="7"/>
-        <v>119476381.79829542</v>
+        <v>99801865.85794054</v>
       </c>
       <c r="Q39" s="6">
         <f t="shared" si="7"/>
-        <v>152285109.81111741</v>
+        <v>131090210.71532272</v>
       </c>
       <c r="R39" s="6">
         <f t="shared" si="7"/>
-        <v>194892250.04778594</v>
+        <v>171497094.88991952</v>
       </c>
       <c r="S39" s="6">
         <f t="shared" si="7"/>
-        <v>250237326.17545509</v>
+        <v>223758080.17689541</v>
       </c>
       <c r="T39" s="6">
         <f t="shared" si="7"/>
-        <v>322141718.96142501</v>
+        <v>291429396.90996408</v>
       </c>
       <c r="U39" s="89"/>
     </row>
@@ -9856,19 +9742,19 @@
       </c>
       <c r="D41" s="14">
         <f>'Financial Numbers From AR'!D27</f>
-        <v>9513422</v>
+        <v>5065839</v>
       </c>
       <c r="E41" s="14">
         <f>'Financial Numbers From AR'!E27</f>
-        <v>36373276</v>
+        <v>31391109</v>
       </c>
       <c r="F41" s="14">
         <f>'Financial Numbers From AR'!F27</f>
-        <v>61848913</v>
+        <v>52380414</v>
       </c>
       <c r="G41" s="14">
         <f>'Financial Numbers From AR'!G27</f>
-        <v>86537951</v>
+        <v>66992487</v>
       </c>
       <c r="H41" s="12" t="e">
         <f t="shared" ref="H41:T41" si="8">H32+H39</f>
@@ -9982,7 +9868,7 @@
       </c>
       <c r="D44" s="7">
         <f>'Financial Numbers From AR'!D30</f>
-        <v>238957</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7">
         <f>'Financial Numbers From AR'!E30</f>
@@ -9990,11 +9876,11 @@
       </c>
       <c r="F44" s="7">
         <f>'Financial Numbers From AR'!F30</f>
-        <v>37042</v>
+        <v>0</v>
       </c>
       <c r="G44" s="7">
         <f>'Financial Numbers From AR'!G30</f>
-        <v>390750</v>
+        <v>0</v>
       </c>
       <c r="H44" s="7">
         <f>'Assumption Table'!H19</f>
@@ -10061,19 +9947,19 @@
       </c>
       <c r="D45" s="7">
         <f>'Financial Numbers From AR'!D31</f>
-        <v>624666</v>
+        <v>0</v>
       </c>
       <c r="E45" s="7">
         <f>'Financial Numbers From AR'!E31</f>
-        <v>3160515</v>
+        <v>0</v>
       </c>
       <c r="F45" s="7">
         <f>'Financial Numbers From AR'!F31</f>
-        <v>9376050</v>
+        <v>0</v>
       </c>
       <c r="G45" s="7">
         <f>'Financial Numbers From AR'!G31</f>
-        <v>20024329</v>
+        <v>0</v>
       </c>
       <c r="H45" s="7" t="e">
         <f>H7/'Assumption Table'!H31</f>
@@ -10140,19 +10026,19 @@
       </c>
       <c r="D46" s="7">
         <f>'Financial Numbers From AR'!D32</f>
-        <v>1648690</v>
+        <v>0</v>
       </c>
       <c r="E46" s="7">
         <f>'Financial Numbers From AR'!E32</f>
-        <v>647459</v>
+        <v>0</v>
       </c>
       <c r="F46" s="7">
         <f>'Financial Numbers From AR'!F32</f>
-        <v>1879368</v>
+        <v>0</v>
       </c>
       <c r="G46" s="7">
         <f>'Financial Numbers From AR'!G32</f>
-        <v>5684644</v>
+        <v>0</v>
       </c>
       <c r="H46" s="7" t="e">
         <f>H7/'Assumption Table'!H32</f>
@@ -10219,71 +10105,71 @@
       </c>
       <c r="D47" s="7">
         <f>D48-D44-D45-D46</f>
-        <v>2167407</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7">
         <f>E48-E44-E45-E46</f>
-        <v>501247</v>
+        <v>0</v>
       </c>
       <c r="F47" s="7">
         <f>F48-F44-F45-F46</f>
-        <v>815792</v>
+        <v>0</v>
       </c>
       <c r="G47" s="7">
         <f>G48-G44-G45-G46</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="H47" s="7">
         <f>'Assumption Table'!H20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="I47" s="7">
         <f>'Assumption Table'!I20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="J47" s="7">
         <f>'Assumption Table'!J20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="K47" s="7">
         <f>'Assumption Table'!K20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="L47" s="7">
         <f>'Assumption Table'!L20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="M47" s="7">
         <f>'Assumption Table'!M20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="N47" s="7">
         <f>'Assumption Table'!N20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7">
         <f>'Assumption Table'!O20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="P47" s="7">
         <f>'Assumption Table'!P20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="7">
         <f>'Assumption Table'!Q20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="R47" s="7">
         <f>'Assumption Table'!R20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="S47" s="7">
         <f>'Assumption Table'!S20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="T47" s="7">
         <f>'Assumption Table'!T20</f>
-        <v>1272878</v>
+        <v>0</v>
       </c>
       <c r="U47" s="89"/>
     </row>
@@ -10298,19 +10184,19 @@
       </c>
       <c r="D48" s="7">
         <f>'Financial Numbers From AR'!D33</f>
-        <v>4679720</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7">
         <f>'Financial Numbers From AR'!E33</f>
-        <v>4309221</v>
+        <v>0</v>
       </c>
       <c r="F48" s="7">
         <f>'Financial Numbers From AR'!F33</f>
-        <v>12108252</v>
+        <v>0</v>
       </c>
       <c r="G48" s="7">
         <f>'Financial Numbers From AR'!G33</f>
-        <v>27372601</v>
+        <v>0</v>
       </c>
       <c r="H48" s="7" t="e">
         <f t="shared" ref="H48:T48" si="9">SUM(H44:H47)</f>
@@ -10425,71 +10311,71 @@
       </c>
       <c r="D51" s="7">
         <f>'Financial Numbers From AR'!D36</f>
-        <v>252571</v>
+        <v>0</v>
       </c>
       <c r="E51" s="7">
         <f>'Financial Numbers From AR'!E36</f>
-        <v>2260458</v>
+        <v>0</v>
       </c>
       <c r="F51" s="7">
         <f>'Financial Numbers From AR'!F36</f>
-        <v>8676359</v>
+        <v>0</v>
       </c>
       <c r="G51" s="7">
         <f>'Financial Numbers From AR'!G36</f>
-        <v>13979043</v>
+        <v>0</v>
       </c>
       <c r="H51" s="7">
         <f>'Assumption Table'!H51</f>
-        <v>15763417.425000001</v>
+        <v>1002874.4249999998</v>
       </c>
       <c r="I51" s="7">
         <f>'Assumption Table'!I51</f>
-        <v>17067154.177500002</v>
+        <v>2306611.1775000002</v>
       </c>
       <c r="J51" s="7">
         <f>'Assumption Table'!J51</f>
-        <v>18762011.955750003</v>
+        <v>4001468.9557500007</v>
       </c>
       <c r="K51" s="7">
         <f>'Assumption Table'!K51</f>
-        <v>20965327.067475002</v>
+        <v>6204784.0674750004</v>
       </c>
       <c r="L51" s="7">
         <f>'Assumption Table'!L51</f>
-        <v>23829636.712717503</v>
+        <v>9069093.7127175014</v>
       </c>
       <c r="M51" s="7">
         <f>'Assumption Table'!M51</f>
-        <v>27553239.251532756</v>
+        <v>12792696.251532752</v>
       </c>
       <c r="N51" s="7">
         <f>'Assumption Table'!N51</f>
-        <v>32393922.55199258</v>
+        <v>17633379.551992577</v>
       </c>
       <c r="O51" s="7">
         <f>'Assumption Table'!O51</f>
-        <v>38686810.842590354</v>
+        <v>23926267.842590351</v>
       </c>
       <c r="P51" s="7">
         <f>'Assumption Table'!P51</f>
-        <v>46867565.620367467</v>
+        <v>32107022.62036746</v>
       </c>
       <c r="Q51" s="7">
         <f>'Assumption Table'!Q51</f>
-        <v>57502546.831477709</v>
+        <v>42742003.831477702</v>
       </c>
       <c r="R51" s="7">
         <f>'Assumption Table'!R51</f>
-        <v>71328022.405921012</v>
+        <v>56567479.405921012</v>
       </c>
       <c r="S51" s="7">
         <f>'Assumption Table'!S51</f>
-        <v>89301140.652697325</v>
+        <v>74540597.652697325</v>
       </c>
       <c r="T51" s="7">
         <f>'Assumption Table'!T51</f>
-        <v>112666194.37350653</v>
+        <v>97905651.373506531</v>
       </c>
       <c r="U51" s="89"/>
     </row>
@@ -10527,19 +10413,19 @@
       </c>
       <c r="D53" s="29">
         <f>'Financial Numbers From AR'!D38</f>
-        <v>4932291</v>
+        <v>0</v>
       </c>
       <c r="E53" s="29">
         <f>'Financial Numbers From AR'!E38</f>
-        <v>6569679</v>
+        <v>0</v>
       </c>
       <c r="F53" s="29">
         <f>'Financial Numbers From AR'!F38</f>
-        <v>20784611</v>
+        <v>0</v>
       </c>
       <c r="G53" s="29">
         <f>'Financial Numbers From AR'!G38</f>
-        <v>41351644</v>
+        <v>0</v>
       </c>
       <c r="H53" s="29" t="e">
         <f t="shared" ref="H53:T53" si="10">SUM(H48,H51)</f>
@@ -10655,7 +10541,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="7">
         <f t="shared" ref="H56:T56" si="11">H20</f>
-        <v>-854811.80633333325</v>
+        <v>-254486.28899999996</v>
       </c>
       <c r="I56" s="7" t="e">
         <f t="shared" si="11"/>
@@ -10741,23 +10627,23 @@
       </c>
       <c r="D58" s="29">
         <f>'Financial Numbers From AR'!D41</f>
-        <v>4581131</v>
+        <v>0</v>
       </c>
       <c r="E58" s="29">
         <f>'Financial Numbers From AR'!E41</f>
-        <v>29803597</v>
+        <v>0</v>
       </c>
       <c r="F58" s="29">
         <f>'Financial Numbers From AR'!F41</f>
-        <v>41064302</v>
+        <v>0</v>
       </c>
       <c r="G58" s="29">
         <f>'Financial Numbers From AR'!G41</f>
-        <v>45186307</v>
+        <v>0</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" ref="H58:T58" si="12">G58+H56</f>
-        <v>44331495.193666667</v>
+        <v>-254486.28899999996</v>
       </c>
       <c r="I58" s="29" t="e">
         <f t="shared" si="12"/>
@@ -10847,15 +10733,15 @@
       </c>
       <c r="E60" s="29">
         <f>'Financial Numbers From AR'!E43</f>
-        <v>36373276</v>
+        <v>0</v>
       </c>
       <c r="F60" s="29">
         <f>'Financial Numbers From AR'!F43</f>
-        <v>61848913</v>
+        <v>0</v>
       </c>
       <c r="G60" s="29">
         <f>'Financial Numbers From AR'!G43</f>
-        <v>86537951</v>
+        <v>0</v>
       </c>
       <c r="H60" s="29" t="e">
         <f t="shared" ref="H60:T60" si="13">H58+H53</f>
@@ -10950,7 +10836,7 @@
       </c>
       <c r="D63" s="7">
         <f t="shared" si="14"/>
-        <v>238957</v>
+        <v>0</v>
       </c>
       <c r="E63" s="7">
         <f t="shared" si="14"/>
@@ -10958,11 +10844,11 @@
       </c>
       <c r="F63" s="7">
         <f t="shared" si="14"/>
-        <v>37042</v>
+        <v>0</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="14"/>
-        <v>390750</v>
+        <v>0</v>
       </c>
       <c r="H63" s="7">
         <f t="shared" si="14"/>
@@ -11029,71 +10915,71 @@
       </c>
       <c r="D64" s="7">
         <f t="shared" si="15"/>
-        <v>252571</v>
+        <v>0</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" si="15"/>
-        <v>2260458</v>
+        <v>0</v>
       </c>
       <c r="F64" s="7">
         <f t="shared" si="15"/>
-        <v>8676359</v>
+        <v>0</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="15"/>
-        <v>13979043</v>
+        <v>0</v>
       </c>
       <c r="H64" s="7">
         <f t="shared" si="15"/>
-        <v>15763417.425000001</v>
+        <v>1002874.4249999998</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="15"/>
-        <v>17067154.177500002</v>
+        <v>2306611.1775000002</v>
       </c>
       <c r="J64" s="7">
         <f t="shared" si="15"/>
-        <v>18762011.955750003</v>
+        <v>4001468.9557500007</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="15"/>
-        <v>20965327.067475002</v>
+        <v>6204784.0674750004</v>
       </c>
       <c r="L64" s="7">
         <f t="shared" si="15"/>
-        <v>23829636.712717503</v>
+        <v>9069093.7127175014</v>
       </c>
       <c r="M64" s="7">
         <f t="shared" si="15"/>
-        <v>27553239.251532756</v>
+        <v>12792696.251532752</v>
       </c>
       <c r="N64" s="7">
         <f t="shared" si="15"/>
-        <v>32393922.55199258</v>
+        <v>17633379.551992577</v>
       </c>
       <c r="O64" s="7">
         <f t="shared" si="15"/>
-        <v>38686810.842590354</v>
+        <v>23926267.842590351</v>
       </c>
       <c r="P64" s="7">
         <f t="shared" si="15"/>
-        <v>46867565.620367467</v>
+        <v>32107022.62036746</v>
       </c>
       <c r="Q64" s="7">
         <f t="shared" si="15"/>
-        <v>57502546.831477709</v>
+        <v>42742003.831477702</v>
       </c>
       <c r="R64" s="7">
         <f t="shared" si="15"/>
-        <v>71328022.405921012</v>
+        <v>56567479.405921012</v>
       </c>
       <c r="S64" s="7">
         <f t="shared" si="15"/>
-        <v>89301140.652697325</v>
+        <v>74540597.652697325</v>
       </c>
       <c r="T64" s="7">
         <f t="shared" si="15"/>
-        <v>112666194.37350653</v>
+        <v>97905651.373506531</v>
       </c>
       <c r="U64" s="89"/>
     </row>
@@ -11108,71 +10994,71 @@
       </c>
       <c r="D65" s="85">
         <f t="shared" si="16"/>
-        <v>491528</v>
+        <v>0</v>
       </c>
       <c r="E65" s="85">
         <f t="shared" si="16"/>
-        <v>2260458</v>
+        <v>0</v>
       </c>
       <c r="F65" s="85">
         <f t="shared" si="16"/>
-        <v>8713401</v>
+        <v>0</v>
       </c>
       <c r="G65" s="85">
         <f t="shared" si="16"/>
-        <v>14369793</v>
+        <v>0</v>
       </c>
       <c r="H65" s="85">
         <f t="shared" si="16"/>
-        <v>15763417.425000001</v>
+        <v>1002874.4249999998</v>
       </c>
       <c r="I65" s="85">
         <f t="shared" si="16"/>
-        <v>17067154.177500002</v>
+        <v>2306611.1775000002</v>
       </c>
       <c r="J65" s="85">
         <f t="shared" si="16"/>
-        <v>18762011.955750003</v>
+        <v>4001468.9557500007</v>
       </c>
       <c r="K65" s="85">
         <f t="shared" si="16"/>
-        <v>20965327.067475002</v>
+        <v>6204784.0674750004</v>
       </c>
       <c r="L65" s="85">
         <f t="shared" si="16"/>
-        <v>23829636.712717503</v>
+        <v>9069093.7127175014</v>
       </c>
       <c r="M65" s="85">
         <f t="shared" si="16"/>
-        <v>27553239.251532756</v>
+        <v>12792696.251532752</v>
       </c>
       <c r="N65" s="85">
         <f t="shared" si="16"/>
-        <v>32393922.55199258</v>
+        <v>17633379.551992577</v>
       </c>
       <c r="O65" s="85">
         <f t="shared" si="16"/>
-        <v>38686810.842590354</v>
+        <v>23926267.842590351</v>
       </c>
       <c r="P65" s="85">
         <f t="shared" si="16"/>
-        <v>46867565.620367467</v>
+        <v>32107022.62036746</v>
       </c>
       <c r="Q65" s="85">
         <f t="shared" si="16"/>
-        <v>57502546.831477709</v>
+        <v>42742003.831477702</v>
       </c>
       <c r="R65" s="85">
         <f t="shared" si="16"/>
-        <v>71328022.405921012</v>
+        <v>56567479.405921012</v>
       </c>
       <c r="S65" s="85">
         <f t="shared" si="16"/>
-        <v>89301140.652697325</v>
+        <v>74540597.652697325</v>
       </c>
       <c r="T65" s="85">
         <f t="shared" si="16"/>
-        <v>112666194.37350653</v>
+        <v>97905651.373506531</v>
       </c>
       <c r="U65" s="89"/>
     </row>
@@ -11275,7 +11161,7 @@
       </c>
       <c r="H71" s="87">
         <f t="shared" si="17"/>
-        <v>-854811.80633333325</v>
+        <v>-254486.28899999996</v>
       </c>
       <c r="I71" s="87" t="e">
         <f t="shared" si="17"/>
@@ -11336,55 +11222,55 @@
       <c r="G72" s="87"/>
       <c r="H72" s="87">
         <f>-'Assumption Table'!H124</f>
-        <v>1049904.2066666665</v>
+        <v>267964.13999999996</v>
       </c>
       <c r="I72" s="87">
         <f>-'Assumption Table'!I124</f>
-        <v>1409081.6486666668</v>
+        <v>616317.522</v>
       </c>
       <c r="J72" s="87">
         <f>-'Assumption Table'!J124</f>
-        <v>1876012.3232666668</v>
+        <v>1069176.9186000002</v>
       </c>
       <c r="K72" s="87">
         <f>-'Assumption Table'!K124</f>
-        <v>2483022.200246667</v>
+        <v>1657894.1341800001</v>
       </c>
       <c r="L72" s="87">
         <f>-'Assumption Table'!L124</f>
-        <v>3272135.040320667</v>
+        <v>2423226.514434</v>
       </c>
       <c r="M72" s="87">
         <f>-'Assumption Table'!M124</f>
-        <v>4297981.7324168673</v>
+        <v>3418158.6087642005</v>
       </c>
       <c r="N72" s="87">
         <f>-'Assumption Table'!N124</f>
-        <v>5631582.4321419271</v>
+        <v>4711570.3313934598</v>
       </c>
       <c r="O72" s="87">
         <f>-'Assumption Table'!O124</f>
-        <v>7365263.3417845061</v>
+        <v>6393005.5708114989</v>
       </c>
       <c r="P72" s="87">
         <f>-'Assumption Table'!P124</f>
-        <v>9619048.5243198592</v>
+        <v>8578871.3820549492</v>
       </c>
       <c r="Q72" s="87">
         <f>-'Assumption Table'!Q124</f>
-        <v>12548969.261615817</v>
+        <v>11420496.936671434</v>
       </c>
       <c r="R72" s="87">
         <f>-'Assumption Table'!R124</f>
-        <v>16357866.220100563</v>
+        <v>15114610.157672867</v>
       </c>
       <c r="S72" s="87">
         <f>-'Assumption Table'!S124</f>
-        <v>21309432.266130734</v>
+        <v>19916957.34497473</v>
       </c>
       <c r="T72" s="87">
         <f>-'Assumption Table'!T124</f>
-        <v>27746468.125969954</v>
+        <v>26160008.688467149</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -11415,19 +11301,19 @@
       </c>
       <c r="D74" s="87">
         <f t="shared" ref="D74:T74" si="18">(D75+D76+D77-D78-D79)</f>
-        <v>-934011</v>
+        <v>0</v>
       </c>
       <c r="E74" s="87">
         <f t="shared" si="18"/>
-        <v>-1356755</v>
+        <v>0</v>
       </c>
       <c r="F74" s="87">
         <f t="shared" si="18"/>
-        <v>-6745541</v>
+        <v>0</v>
       </c>
       <c r="G74" s="87">
         <f t="shared" si="18"/>
-        <v>-8129732</v>
+        <v>0</v>
       </c>
       <c r="H74" s="87" t="e">
         <f t="shared" si="18"/>
@@ -11488,19 +11374,19 @@
       </c>
       <c r="D75" s="87">
         <f t="shared" ref="D75:T75" si="19">D28-C28</f>
-        <v>8303</v>
+        <v>0</v>
       </c>
       <c r="E75" s="87">
         <f t="shared" si="19"/>
-        <v>107246</v>
+        <v>0</v>
       </c>
       <c r="F75" s="87">
         <f t="shared" si="19"/>
-        <v>4992</v>
+        <v>0</v>
       </c>
       <c r="G75" s="87">
         <f t="shared" si="19"/>
-        <v>-72160</v>
+        <v>0</v>
       </c>
       <c r="H75" s="87" t="e">
         <f t="shared" si="19"/>
@@ -11561,19 +11447,19 @@
       </c>
       <c r="D76" s="87">
         <f t="shared" ref="D76:T76" si="20">D29-C29</f>
-        <v>518086</v>
+        <v>0</v>
       </c>
       <c r="E76" s="87">
         <f t="shared" si="20"/>
-        <v>529918</v>
+        <v>0</v>
       </c>
       <c r="F76" s="87">
         <f t="shared" si="20"/>
-        <v>569886</v>
+        <v>0</v>
       </c>
       <c r="G76" s="87">
         <f t="shared" si="20"/>
-        <v>5186803</v>
+        <v>0</v>
       </c>
       <c r="H76" s="87" t="e">
         <f t="shared" si="20"/>
@@ -11634,19 +11520,19 @@
       </c>
       <c r="D77" s="87">
         <f t="shared" ref="D77:T77" si="21">D30-C30</f>
-        <v>812956</v>
+        <v>0</v>
       </c>
       <c r="E77" s="87">
         <f t="shared" si="21"/>
-        <v>-459301</v>
+        <v>0</v>
       </c>
       <c r="F77" s="87">
         <f t="shared" si="21"/>
-        <v>127025</v>
+        <v>0</v>
       </c>
       <c r="G77" s="87">
         <f t="shared" si="21"/>
-        <v>1209180</v>
+        <v>0</v>
       </c>
       <c r="H77" s="87" t="e">
         <f t="shared" si="21"/>
@@ -11707,19 +11593,19 @@
       </c>
       <c r="D78" s="87">
         <f t="shared" ref="D78:T78" si="22">D45-C45</f>
-        <v>624666</v>
+        <v>0</v>
       </c>
       <c r="E78" s="87">
         <f t="shared" si="22"/>
-        <v>2535849</v>
+        <v>0</v>
       </c>
       <c r="F78" s="87">
         <f t="shared" si="22"/>
-        <v>6215535</v>
+        <v>0</v>
       </c>
       <c r="G78" s="87">
         <f t="shared" si="22"/>
-        <v>10648279</v>
+        <v>0</v>
       </c>
       <c r="H78" s="87" t="e">
         <f t="shared" si="22"/>
@@ -11780,19 +11666,19 @@
       </c>
       <c r="D79" s="87">
         <f t="shared" ref="D79:T79" si="23">D46-C46</f>
-        <v>1648690</v>
+        <v>0</v>
       </c>
       <c r="E79" s="87">
         <f t="shared" si="23"/>
-        <v>-1001231</v>
+        <v>0</v>
       </c>
       <c r="F79" s="87">
         <f t="shared" si="23"/>
-        <v>1231909</v>
+        <v>0</v>
       </c>
       <c r="G79" s="87">
         <f t="shared" si="23"/>
-        <v>3805276</v>
+        <v>0</v>
       </c>
       <c r="H79" s="87" t="e">
         <f t="shared" si="23"/>
@@ -11873,19 +11759,19 @@
       </c>
       <c r="D81" s="87">
         <f t="shared" ref="D81:T81" si="24">D71+D72-D74</f>
-        <v>934011</v>
+        <v>0</v>
       </c>
       <c r="E81" s="87">
         <f t="shared" si="24"/>
-        <v>1356755</v>
+        <v>0</v>
       </c>
       <c r="F81" s="87">
         <f t="shared" si="24"/>
-        <v>6745541</v>
+        <v>0</v>
       </c>
       <c r="G81" s="87">
         <f t="shared" si="24"/>
-        <v>8129732</v>
+        <v>0</v>
       </c>
       <c r="H81" s="87" t="e">
         <f t="shared" si="24"/>
@@ -12052,55 +11938,55 @@
       <c r="G85" s="87"/>
       <c r="H85" s="87">
         <f>-'Assumption Table'!H106</f>
-        <v>-265714.80000000005</v>
+        <v>-15928.800000000003</v>
       </c>
       <c r="I85" s="87">
         <f>-'Assumption Table'!I106</f>
-        <v>-345429.24</v>
+        <v>-20707.440000000002</v>
       </c>
       <c r="J85" s="87">
         <f>-'Assumption Table'!J106</f>
-        <v>-449058.0120000001</v>
+        <v>-26919.672000000006</v>
       </c>
       <c r="K85" s="87">
         <f>-'Assumption Table'!K106</f>
-        <v>-583775.41559999995</v>
+        <v>-34995.573600000003</v>
       </c>
       <c r="L85" s="87">
         <f>-'Assumption Table'!L106</f>
-        <v>-758908.04028000031</v>
+        <v>-45494.245680000022</v>
       </c>
       <c r="M85" s="87">
         <f>-'Assumption Table'!M106</f>
-        <v>-986580.45236400049</v>
+        <v>-59142.519384000014</v>
       </c>
       <c r="N85" s="87">
         <f>-'Assumption Table'!N106</f>
-        <v>-1282554.5880732005</v>
+        <v>-76885.275199200027</v>
       </c>
       <c r="O85" s="87">
         <f>-'Assumption Table'!O106</f>
-        <v>-1667320.9644951606</v>
+        <v>-99950.857758960046</v>
       </c>
       <c r="P85" s="87">
         <f>-'Assumption Table'!P106</f>
-        <v>-2167517.2538437089</v>
+        <v>-129936.11508664809</v>
       </c>
       <c r="Q85" s="87">
         <f>-'Assumption Table'!Q106</f>
-        <v>-2817772.429996822</v>
+        <v>-168916.94961264252</v>
       </c>
       <c r="R85" s="87">
         <f>-'Assumption Table'!R106</f>
-        <v>-3663104.1589958686</v>
+        <v>-219592.0344964352</v>
       </c>
       <c r="S85" s="87">
         <f>-'Assumption Table'!S106</f>
-        <v>-4762035.4066946302</v>
+        <v>-285469.64484536578</v>
       </c>
       <c r="T85" s="87">
         <f>-'Assumption Table'!T106</f>
-        <v>-6190646.028703019</v>
+        <v>-371110.53829897568</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -12113,55 +11999,55 @@
       <c r="G86" s="87"/>
       <c r="H86" s="87">
         <f t="shared" ref="H86:T86" si="25">SUM(H84:H85)</f>
-        <v>-4277212.4999999991</v>
+        <v>-4027426.4999999991</v>
       </c>
       <c r="I86" s="87">
         <f t="shared" si="25"/>
-        <v>-5560376.2500000019</v>
+        <v>-5235654.450000002</v>
       </c>
       <c r="J86" s="87">
         <f t="shared" si="25"/>
-        <v>-7228489.1250000019</v>
+        <v>-6806350.785000002</v>
       </c>
       <c r="K86" s="87">
         <f t="shared" si="25"/>
-        <v>-9397035.8624999989</v>
+        <v>-8848256.0204999987</v>
       </c>
       <c r="L86" s="87">
         <f t="shared" si="25"/>
-        <v>-12216146.621250004</v>
+        <v>-11502732.826650005</v>
       </c>
       <c r="M86" s="87">
         <f t="shared" si="25"/>
-        <v>-15880990.607625004</v>
+        <v>-14953552.674645003</v>
       </c>
       <c r="N86" s="87">
         <f t="shared" si="25"/>
-        <v>-20645287.789912499</v>
+        <v>-19439618.477038499</v>
       </c>
       <c r="O86" s="87">
         <f t="shared" si="25"/>
-        <v>-26838874.126886256</v>
+        <v>-25271504.020150058</v>
       </c>
       <c r="P86" s="87">
         <f t="shared" si="25"/>
-        <v>-34890536.364952147</v>
+        <v>-32852955.226195086</v>
       </c>
       <c r="Q86" s="87">
         <f t="shared" si="25"/>
-        <v>-45357697.274437785</v>
+        <v>-42708841.794053607</v>
       </c>
       <c r="R86" s="87">
         <f t="shared" si="25"/>
-        <v>-58965006.456769109</v>
+        <v>-55521494.332269676</v>
       </c>
       <c r="S86" s="87">
         <f t="shared" si="25"/>
-        <v>-76654508.393799886</v>
+        <v>-72177942.631950617</v>
       </c>
       <c r="T86" s="87">
         <f t="shared" si="25"/>
-        <v>-99650860.911939844</v>
+        <v>-93831325.421535805</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -12215,19 +12101,19 @@
       <c r="G89" s="87"/>
       <c r="H89" s="87">
         <f t="shared" ref="H89:T89" si="26">H65-G65</f>
-        <v>1393624.4250000007</v>
+        <v>1002874.4249999998</v>
       </c>
       <c r="I89" s="87">
         <f t="shared" si="26"/>
-        <v>1303736.7525000013</v>
+        <v>1303736.7525000004</v>
       </c>
       <c r="J89" s="87">
         <f t="shared" si="26"/>
-        <v>1694857.7782500014</v>
+        <v>1694857.7782500004</v>
       </c>
       <c r="K89" s="87">
         <f t="shared" si="26"/>
-        <v>2203315.1117249988</v>
+        <v>2203315.1117249997</v>
       </c>
       <c r="L89" s="87">
         <f t="shared" si="26"/>
@@ -12235,7 +12121,7 @@
       </c>
       <c r="M89" s="87">
         <f t="shared" si="26"/>
-        <v>3723602.5388152525</v>
+        <v>3723602.5388152506</v>
       </c>
       <c r="N89" s="87">
         <f t="shared" si="26"/>
@@ -12247,7 +12133,7 @@
       </c>
       <c r="P89" s="87">
         <f t="shared" si="26"/>
-        <v>8180754.777777113</v>
+        <v>8180754.7777771093</v>
       </c>
       <c r="Q89" s="87">
         <f t="shared" si="26"/>
@@ -12255,7 +12141,7 @@
       </c>
       <c r="R89" s="87">
         <f t="shared" si="26"/>
-        <v>13825475.574443303</v>
+        <v>13825475.57444331</v>
       </c>
       <c r="S89" s="87">
         <f t="shared" si="26"/>
@@ -12276,19 +12162,19 @@
       <c r="G90" s="87"/>
       <c r="H90" s="87">
         <f t="shared" ref="H90:T90" si="27">H89</f>
-        <v>1393624.4250000007</v>
+        <v>1002874.4249999998</v>
       </c>
       <c r="I90" s="87">
         <f t="shared" si="27"/>
-        <v>1303736.7525000013</v>
+        <v>1303736.7525000004</v>
       </c>
       <c r="J90" s="87">
         <f t="shared" si="27"/>
-        <v>1694857.7782500014</v>
+        <v>1694857.7782500004</v>
       </c>
       <c r="K90" s="87">
         <f t="shared" si="27"/>
-        <v>2203315.1117249988</v>
+        <v>2203315.1117249997</v>
       </c>
       <c r="L90" s="87">
         <f t="shared" si="27"/>
@@ -12296,7 +12182,7 @@
       </c>
       <c r="M90" s="87">
         <f t="shared" si="27"/>
-        <v>3723602.5388152525</v>
+        <v>3723602.5388152506</v>
       </c>
       <c r="N90" s="87">
         <f t="shared" si="27"/>
@@ -12308,7 +12194,7 @@
       </c>
       <c r="P90" s="87">
         <f t="shared" si="27"/>
-        <v>8180754.777777113</v>
+        <v>8180754.7777771093</v>
       </c>
       <c r="Q90" s="87">
         <f t="shared" si="27"/>
@@ -12316,7 +12202,7 @@
       </c>
       <c r="R90" s="87">
         <f t="shared" si="27"/>
-        <v>13825475.574443303</v>
+        <v>13825475.57444331</v>
       </c>
       <c r="S90" s="87">
         <f t="shared" si="27"/>
@@ -12358,7 +12244,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="14">
         <f t="shared" ref="H92:T92" si="28">G94</f>
-        <v>38478016</v>
+        <v>0</v>
       </c>
       <c r="I92" s="14" t="e">
         <f t="shared" si="28"/>
@@ -12480,19 +12366,19 @@
       <c r="C94" s="14"/>
       <c r="D94" s="14">
         <f>D27</f>
-        <v>1296215</v>
+        <v>0</v>
       </c>
       <c r="E94" s="14">
         <f>E27</f>
-        <v>8938341</v>
+        <v>0</v>
       </c>
       <c r="F94" s="14">
         <f>F27</f>
-        <v>27854224</v>
+        <v>0</v>
       </c>
       <c r="G94" s="14">
         <f>G27</f>
-        <v>38478016</v>
+        <v>0</v>
       </c>
       <c r="H94" s="14" t="e">
         <f t="shared" ref="H94:T94" si="30">SUM(H92:H93)</f>
@@ -12671,21 +12557,21 @@
       <c r="B101" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="C101" s="92">
+      <c r="C101" s="92" t="e">
         <f>C20/((C58+D58)/2)</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="92">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D101" s="92" t="e">
         <f>D20/((D58+E58)/2)</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="92">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E101" s="92" t="e">
         <f>E20/((E58+F58)/2)</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="92">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F101" s="92" t="e">
         <f>F20/((F58+G58)/2)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G101" s="139">
         <f>G20/((G58+H58)/2)</f>
@@ -12913,21 +12799,21 @@
         <f>C32/C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D107" s="92">
+      <c r="D107" s="92" t="e">
         <f>D32/D48</f>
-        <v>1.0825089962647338</v>
-      </c>
-      <c r="E107" s="92">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E107" s="92" t="e">
         <f>E32/E48</f>
-        <v>7.2846365967305919</v>
-      </c>
-      <c r="F107" s="92">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F107" s="92" t="e">
         <f>F32/F48</f>
-        <v>4.3260095676898693</v>
-      </c>
-      <c r="G107" s="139">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G107" s="139" t="e">
         <f>G32/G48</f>
-        <v>2.4474286166667172</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H107" s="145"/>
       <c r="I107" s="142"/>
@@ -12952,21 +12838,21 @@
         <f>(C32-C29)/C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D108" s="92">
+      <c r="D108" s="92" t="e">
         <f>(D32-D29)/D48</f>
-        <v>0.97180023591155029</v>
-      </c>
-      <c r="E108" s="92">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E108" s="92" t="e">
         <f>(E32-E29)/E48</f>
-        <v>7.0414362595930911</v>
-      </c>
-      <c r="F108" s="92">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F108" s="92" t="e">
         <f>(F32-F29)/F48</f>
-        <v>4.1923907761417585</v>
-      </c>
-      <c r="G108" s="139">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G108" s="139" t="e">
         <f>(G32-G29)/G48</f>
-        <v>2.1988335708396876</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H108" s="145"/>
       <c r="I108" s="142"/>
@@ -12991,21 +12877,21 @@
         <f>C81/C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D109" s="92">
+      <c r="D109" s="92" t="e">
         <f>D81/D48</f>
-        <v>0.19958694109904013</v>
-      </c>
-      <c r="E109" s="92">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E109" s="92" t="e">
         <f>E81/E48</f>
-        <v>0.31484925001525799</v>
-      </c>
-      <c r="F109" s="92">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F109" s="92" t="e">
         <f>F81/F48</f>
-        <v>0.55710279237663707</v>
-      </c>
-      <c r="G109" s="139">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G109" s="139" t="e">
         <f>G81/G48</f>
-        <v>0.29700253914489166</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H109" s="145"/>
       <c r="I109" s="142"/>
@@ -13034,19 +12920,19 @@
       </c>
       <c r="D110" s="92">
         <f>D51/(D41-D48)</f>
-        <v>5.2252083392811552E-2</v>
+        <v>0</v>
       </c>
       <c r="E110" s="92">
         <f>E51/(E41-E48)</f>
-        <v>7.0498194941344752E-2</v>
+        <v>0</v>
       </c>
       <c r="F110" s="92">
         <f>F51/(F41-F48)</f>
-        <v>0.17443191999398641</v>
+        <v>0</v>
       </c>
       <c r="G110" s="139">
         <f>G51/(G41-G48)</f>
-        <v>0.23627077334960411</v>
+        <v>0</v>
       </c>
       <c r="H110" s="145"/>
       <c r="I110" s="142"/>
@@ -13340,55 +13226,55 @@
       <c r="G6" s="118"/>
       <c r="H6" s="98">
         <f>'FA &amp; Operating Model'!H13</f>
-        <v>-1049904.2066666665</v>
+        <v>-267964.13999999996</v>
       </c>
       <c r="I6" s="26">
         <f>'FA &amp; Operating Model'!I13</f>
-        <v>-1409081.6486666668</v>
+        <v>-616317.522</v>
       </c>
       <c r="J6" s="26">
         <f>'FA &amp; Operating Model'!J13</f>
-        <v>-1876012.3232666668</v>
+        <v>-1069176.9186000002</v>
       </c>
       <c r="K6" s="26">
         <f>'FA &amp; Operating Model'!K13</f>
-        <v>-2483022.200246667</v>
+        <v>-1657894.1341800001</v>
       </c>
       <c r="L6" s="26">
         <f>'FA &amp; Operating Model'!L13</f>
-        <v>-3272135.040320667</v>
+        <v>-2423226.514434</v>
       </c>
       <c r="M6" s="26">
         <f>'FA &amp; Operating Model'!M13</f>
-        <v>-4297981.7324168673</v>
+        <v>-3418158.6087642005</v>
       </c>
       <c r="N6" s="26">
         <f>'FA &amp; Operating Model'!N13</f>
-        <v>-5631582.4321419271</v>
+        <v>-4711570.3313934598</v>
       </c>
       <c r="O6" s="26">
         <f>'FA &amp; Operating Model'!O13</f>
-        <v>-7365263.3417845061</v>
+        <v>-6393005.5708114989</v>
       </c>
       <c r="P6" s="26">
         <f>'FA &amp; Operating Model'!P13</f>
-        <v>-9619048.5243198592</v>
+        <v>-8578871.3820549492</v>
       </c>
       <c r="Q6" s="26">
         <f>'FA &amp; Operating Model'!Q13</f>
-        <v>-12548969.261615817</v>
+        <v>-11420496.936671434</v>
       </c>
       <c r="R6" s="26">
         <f>'FA &amp; Operating Model'!R13</f>
-        <v>-16357866.220100563</v>
+        <v>-15114610.157672867</v>
       </c>
       <c r="S6" s="26">
         <f>'FA &amp; Operating Model'!S13</f>
-        <v>-21309432.266130734</v>
+        <v>-19916957.34497473</v>
       </c>
       <c r="T6" s="118">
         <f>'FA &amp; Operating Model'!T13</f>
-        <v>-27746468.125969954</v>
+        <v>-26160008.688467149</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.5" customHeight="1">
@@ -13464,55 +13350,55 @@
       <c r="G8" s="118"/>
       <c r="H8" s="98">
         <f>'FA &amp; Operating Model'!H9</f>
-        <v>-1049904.2066666665</v>
+        <v>-267964.13999999996</v>
       </c>
       <c r="I8" s="26">
         <f>'FA &amp; Operating Model'!I9</f>
-        <v>-1409081.6486666668</v>
+        <v>-616317.522</v>
       </c>
       <c r="J8" s="26">
         <f>'FA &amp; Operating Model'!J9</f>
-        <v>-1876012.3232666668</v>
+        <v>-1069176.9186000002</v>
       </c>
       <c r="K8" s="26">
         <f>'FA &amp; Operating Model'!K9</f>
-        <v>-2483022.200246667</v>
+        <v>-1657894.1341800001</v>
       </c>
       <c r="L8" s="26">
         <f>'FA &amp; Operating Model'!L9</f>
-        <v>-3272135.040320667</v>
+        <v>-2423226.514434</v>
       </c>
       <c r="M8" s="26">
         <f>'FA &amp; Operating Model'!M9</f>
-        <v>-4297981.7324168673</v>
+        <v>-3418158.6087642005</v>
       </c>
       <c r="N8" s="26">
         <f>'FA &amp; Operating Model'!N9</f>
-        <v>-5631582.4321419271</v>
+        <v>-4711570.3313934598</v>
       </c>
       <c r="O8" s="26">
         <f>'FA &amp; Operating Model'!O9</f>
-        <v>-7365263.3417845061</v>
+        <v>-6393005.5708114989</v>
       </c>
       <c r="P8" s="26">
         <f>'FA &amp; Operating Model'!P9</f>
-        <v>-9619048.5243198592</v>
+        <v>-8578871.3820549492</v>
       </c>
       <c r="Q8" s="26">
         <f>'FA &amp; Operating Model'!Q9</f>
-        <v>-12548969.261615817</v>
+        <v>-11420496.936671434</v>
       </c>
       <c r="R8" s="26">
         <f>'FA &amp; Operating Model'!R9</f>
-        <v>-16357866.220100563</v>
+        <v>-15114610.157672867</v>
       </c>
       <c r="S8" s="26">
         <f>'FA &amp; Operating Model'!S9</f>
-        <v>-21309432.266130734</v>
+        <v>-19916957.34497473</v>
       </c>
       <c r="T8" s="118">
         <f>'FA &amp; Operating Model'!T9</f>
-        <v>-27746468.125969954</v>
+        <v>-26160008.688467149</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.5" customHeight="1">
@@ -13588,55 +13474,55 @@
       <c r="G10" s="118"/>
       <c r="H10" s="98">
         <f>'FA &amp; Operating Model'!H84+'FA &amp; Operating Model'!H85</f>
-        <v>-4277212.4999999991</v>
+        <v>-4027426.4999999991</v>
       </c>
       <c r="I10" s="26">
         <f>'FA &amp; Operating Model'!I84+'FA &amp; Operating Model'!I85</f>
-        <v>-5560376.2500000019</v>
+        <v>-5235654.450000002</v>
       </c>
       <c r="J10" s="26">
         <f>'FA &amp; Operating Model'!J84+'FA &amp; Operating Model'!J85</f>
-        <v>-7228489.1250000019</v>
+        <v>-6806350.785000002</v>
       </c>
       <c r="K10" s="26">
         <f>'FA &amp; Operating Model'!K84+'FA &amp; Operating Model'!K85</f>
-        <v>-9397035.8624999989</v>
+        <v>-8848256.0204999987</v>
       </c>
       <c r="L10" s="26">
         <f>'FA &amp; Operating Model'!L84+'FA &amp; Operating Model'!L85</f>
-        <v>-12216146.621250004</v>
+        <v>-11502732.826650005</v>
       </c>
       <c r="M10" s="26">
         <f>'FA &amp; Operating Model'!M84+'FA &amp; Operating Model'!M85</f>
-        <v>-15880990.607625004</v>
+        <v>-14953552.674645003</v>
       </c>
       <c r="N10" s="26">
         <f>'FA &amp; Operating Model'!N84+'FA &amp; Operating Model'!N85</f>
-        <v>-20645287.789912499</v>
+        <v>-19439618.477038499</v>
       </c>
       <c r="O10" s="26">
         <f>'FA &amp; Operating Model'!O84+'FA &amp; Operating Model'!O85</f>
-        <v>-26838874.126886256</v>
+        <v>-25271504.020150058</v>
       </c>
       <c r="P10" s="26">
         <f>'FA &amp; Operating Model'!P84+'FA &amp; Operating Model'!P85</f>
-        <v>-34890536.364952147</v>
+        <v>-32852955.226195086</v>
       </c>
       <c r="Q10" s="26">
         <f>'FA &amp; Operating Model'!Q84+'FA &amp; Operating Model'!Q85</f>
-        <v>-45357697.274437785</v>
+        <v>-42708841.794053607</v>
       </c>
       <c r="R10" s="26">
         <f>'FA &amp; Operating Model'!R84+'FA &amp; Operating Model'!R85</f>
-        <v>-58965006.456769109</v>
+        <v>-55521494.332269676</v>
       </c>
       <c r="S10" s="26">
         <f>'FA &amp; Operating Model'!S84+'FA &amp; Operating Model'!S85</f>
-        <v>-76654508.393799886</v>
+        <v>-72177942.631950617</v>
       </c>
       <c r="T10" s="118">
         <f>'FA &amp; Operating Model'!T84+'FA &amp; Operating Model'!T85</f>
-        <v>-99650860.911939844</v>
+        <v>-93831325.421535805</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1">
@@ -13988,7 +13874,7 @@
       </c>
       <c r="C20" s="108">
         <f>'FA &amp; Operating Model'!G27</f>
-        <v>38478016</v>
+        <v>0</v>
       </c>
       <c r="D20" s="106"/>
       <c r="E20" s="106" t="s">
